--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/resume-nsf-pilot-01/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593DDA1B-B030-CA48-8B71-7FF2E282A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4AF61-E884-7D40-89A5-BA9B44975ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19400" yWindow="-21100" windowWidth="34560" windowHeight="19360" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="5000" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="4" r:id="rId2"/>
-    <sheet name="jurisdiction" sheetId="2" r:id="rId3"/>
-    <sheet name="beta" sheetId="6" r:id="rId4"/>
-    <sheet name="travel" sheetId="3" r:id="rId5"/>
-    <sheet name="relative-mixing" sheetId="5" r:id="rId6"/>
+    <sheet name="health-costs" sheetId="7" r:id="rId3"/>
+    <sheet name="jurisdiction" sheetId="2" r:id="rId4"/>
+    <sheet name="beta" sheetId="6" r:id="rId5"/>
+    <sheet name="travel" sheetId="3" r:id="rId6"/>
+    <sheet name="relative-mixing" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="c_">parameters!$B$6</definedName>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>setting</t>
   </si>
@@ -322,6 +323,33 @@
   </si>
   <si>
     <t>Percent reduction in IFR at the end of the pandemic.</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>hospital_cost</t>
+  </si>
+  <si>
+    <t>VSLY</t>
+  </si>
+  <si>
+    <t>disease_state_prevalence</t>
+  </si>
+  <si>
+    <t>disease_duration</t>
+  </si>
+  <si>
+    <t>DALY_weight</t>
   </si>
 </sst>
 </file>
@@ -795,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1076,6 +1104,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4AC197-751B-D642-B32A-DB1D08A8DC07}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.54</v>
+      </c>
+      <c r="E2">
+        <v>279113</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>279113</v>
+      </c>
+      <c r="F3">
+        <v>11267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
+      <c r="E4">
+        <v>279113</v>
+      </c>
+      <c r="F4">
+        <v>41510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0.219</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>279113</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1274,7 +1422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -4798,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C96AD-7FCE-D24F-B326-0D5D7D33F358}">
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -6451,7 +6599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC606-5086-1F48-9D1A-C2900FAE3B19}">
   <dimension ref="A1:G7"/>
   <sheetViews>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4AF61-E884-7D40-89A5-BA9B44975ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B008025-2970-3F49-8921-7F8E0F2FDCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="620" yWindow="760" windowWidth="24940" windowHeight="17480" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="4" r:id="rId2"/>
-    <sheet name="health-costs" sheetId="7" r:id="rId3"/>
+    <sheet name="healthcosts" sheetId="7" r:id="rId3"/>
     <sheet name="jurisdiction" sheetId="2" r:id="rId4"/>
     <sheet name="beta" sheetId="6" r:id="rId5"/>
     <sheet name="travel" sheetId="3" r:id="rId6"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>setting</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>DALY_weight</t>
+  </si>
+  <si>
+    <t>severity</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,9 +1122,14 @@
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="10" max="11" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -1203,6 +1211,7 @@
         <v>64</v>
       </c>
       <c r="B5">
+        <f>0.219</f>
         <v>0.219</v>
       </c>
       <c r="C5">

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B008025-2970-3F49-8921-7F8E0F2FDCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A9D16-60A8-2E4C-8B4D-BABE8FE309B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="760" windowWidth="24940" windowHeight="17480" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="840" yWindow="880" windowWidth="24940" windowHeight="15640" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="relative-mixing" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$24</definedName>
     <definedName name="c_">parameters!$B$6</definedName>
     <definedName name="C_surv">parameters!$B$12</definedName>
     <definedName name="days_to_adjust_NPI">parameters!$B$8</definedName>
@@ -32,6 +33,7 @@
     <definedName name="r_">parameters!$B$9</definedName>
     <definedName name="sigma">parameters!$B$2</definedName>
     <definedName name="tau">parameters!$B$5</definedName>
+    <definedName name="VSLY">parameters!$B$24</definedName>
     <definedName name="w">parameters!$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -131,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>setting</t>
   </si>
@@ -232,12 +234,6 @@
     <t>Cost of surveillance</t>
   </si>
   <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -353,6 +349,9 @@
   </si>
   <si>
     <t>severity</t>
+  </si>
+  <si>
+    <t>Value of a statistical life year</t>
   </si>
 </sst>
 </file>
@@ -784,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,14 +808,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -824,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A15" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,7 +861,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -934,10 +925,10 @@
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,131 +967,143 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7">
         <v>0.05</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9">
         <v>0.02</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11">
         <v>0.5</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="10">
         <f>0.7*2.38/1000/B15</f>
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="10">
         <f>B21*0.9</f>
         <v>7.4969999999999995E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>279113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G24" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1108,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4AC197-751B-D642-B32A-DB1D08A8DC07}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,35 +1123,31 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="11" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="10" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1160,15 +1159,12 @@
         <v>0.54</v>
       </c>
       <c r="E2">
-        <v>279113</v>
-      </c>
-      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1180,15 +1176,12 @@
         <v>0.09</v>
       </c>
       <c r="E3">
-        <v>279113</v>
-      </c>
-      <c r="F3">
         <v>11267</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1200,15 +1193,12 @@
         <v>0.03</v>
       </c>
       <c r="E4">
-        <v>279113</v>
-      </c>
-      <c r="F4">
         <v>41510</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1221,9 +1211,6 @@
         <v>0.05</v>
       </c>
       <c r="E5">
-        <v>279113</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1318,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A9D16-60A8-2E4C-8B4D-BABE8FE309B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7189F8-46FD-1C4E-9E0C-A580E82C3AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="880" windowWidth="24940" windowHeight="15640" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="860" yWindow="1760" windowWidth="22080" windowHeight="15780" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="healthcosts" sheetId="7" r:id="rId3"/>
     <sheet name="jurisdiction" sheetId="2" r:id="rId4"/>
     <sheet name="beta" sheetId="6" r:id="rId5"/>
-    <sheet name="travel" sheetId="3" r:id="rId6"/>
-    <sheet name="relative-mixing" sheetId="5" r:id="rId7"/>
+    <sheet name="coordination" sheetId="8" r:id="rId6"/>
+    <sheet name="travel" sheetId="3" r:id="rId7"/>
+    <sheet name="relative-mixing" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$24</definedName>
@@ -110,6 +111,24 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D4FB1254-EC3E-B749-8D86-AF1DC61A85B4}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D4FB1254-EC3E-B749-8D86-AF1DC61A85B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Do NOT EDIT UPPER RIGHT HAND (right of diagonal); They will AUTOMATICALLY mirror lower left</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -133,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>setting</t>
   </si>
@@ -352,6 +371,18 @@
   </si>
   <si>
     <t>Value of a statistical life year</t>
+  </si>
+  <si>
+    <t>YearsLostAtDeath</t>
+  </si>
+  <si>
+    <t>Number of Expected Life Years Lost to death from COVID</t>
+  </si>
+  <si>
+    <t>The probability that the disease event occurs (if it doesn't occur we just incur the surveillance cost).</t>
+  </si>
+  <si>
+    <t>p_disease_event</t>
   </si>
 </sst>
 </file>
@@ -451,6 +482,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Pedro Nascimento de Lima" id="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" userId="S::plima@rand.org::bad65025-c9fe-4811-b567-480395969e50" providerId="AD"/>
+  <person displayName="Sarah Karr" id="{FF1AC119-595F-EB42-B830-3D3539BE542F}" userId="S::sarahk@rand.org::6384f247-d4ff-499a-b2f3-dc408776128d" providerId="AD"/>
 </personList>
 </file>
 
@@ -781,12 +813,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2023-08-24T20:47:56.82" personId="{FF1AC119-595F-EB42-B830-3D3539BE542F}" id="{D4FB1254-EC3E-B749-8D86-AF1DC61A85B4}">
+    <text>Do NOT EDIT UPPER RIGHT HAND (right of diagonal); They will AUTOMATICALLY mirror lower left</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -906,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,7 +1052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1023,7 +1063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1034,7 +1074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1045,7 +1085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1056,7 +1096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1068,7 +1108,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1091,7 +1131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1100,6 +1140,34 @@
       </c>
       <c r="C24" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>13.8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1114,18 +1182,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="10" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="187" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4943,6 +5009,611 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CF3C4-9881-3046-921C-4AF233771A62}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>
+        <v>NY</v>
+      </c>
+      <c r="C1" t="str">
+        <v>NJ</v>
+      </c>
+      <c r="D1" t="str">
+        <v>PA</v>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
+      <c r="T1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>IF(jurisdiction!B2="","",jurisdiction!B2)</f>
+        <v>NY</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(C2),ROW(C2)))="", "",INDIRECT(ADDRESS(COLUMN(C2),ROW(C2))))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(D2),ROW(D2)))="", "",INDIRECT(ADDRESS(COLUMN(D2),ROW(D2))))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E2),ROW(E2)))="", "",INDIRECT(ADDRESS(COLUMN(E2),ROW(E2))))</f>
+        <v/>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(F2),ROW(F2)))="", "",INDIRECT(ADDRESS(COLUMN(F2),ROW(F2))))</f>
+        <v/>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(G2),ROW(G2)))="", "",INDIRECT(ADDRESS(COLUMN(G2),ROW(G2))))</f>
+        <v/>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H2),ROW(H2)))="", "",INDIRECT(ADDRESS(COLUMN(H2),ROW(H2))))</f>
+        <v/>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I2),ROW(I2)))="", "",INDIRECT(ADDRESS(COLUMN(I2),ROW(I2))))</f>
+        <v/>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J2),ROW(J2)))="", "",INDIRECT(ADDRESS(COLUMN(J2),ROW(J2))))</f>
+        <v/>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K2),ROW(K2)))="", "",INDIRECT(ADDRESS(COLUMN(K2),ROW(K2))))</f>
+        <v/>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L2),ROW(L2)))="", "",INDIRECT(ADDRESS(COLUMN(L2),ROW(L2))))</f>
+        <v/>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M2),ROW(M2)))="", "",INDIRECT(ADDRESS(COLUMN(M2),ROW(M2))))</f>
+        <v/>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N2),ROW(N2)))="", "",INDIRECT(ADDRESS(COLUMN(N2),ROW(N2))))</f>
+        <v/>
+      </c>
+      <c r="O2" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O2),ROW(O2)))="", "",INDIRECT(ADDRESS(COLUMN(O2),ROW(O2))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(jurisdiction!B3="","",jurisdiction!B3)</f>
+        <v>NJ</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(D3),ROW(D3)))="", "",INDIRECT(ADDRESS(COLUMN(D3),ROW(D3))))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E3),ROW(E3)))="", "",INDIRECT(ADDRESS(COLUMN(E3),ROW(E3))))</f>
+        <v/>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(F3),ROW(F3)))="", "",INDIRECT(ADDRESS(COLUMN(F3),ROW(F3))))</f>
+        <v/>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(G3),ROW(G3)))="", "",INDIRECT(ADDRESS(COLUMN(G3),ROW(G3))))</f>
+        <v/>
+      </c>
+      <c r="H3" t="str" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H3),ROW(H3)))="", "",INDIRECT(ADDRESS(COLUMN(H3),ROW(H3))))</f>
+        <v/>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I3),ROW(I3)))="", "",INDIRECT(ADDRESS(COLUMN(I3),ROW(I3))))</f>
+        <v/>
+      </c>
+      <c r="J3" t="str" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J3),ROW(J3)))="", "",INDIRECT(ADDRESS(COLUMN(J3),ROW(J3))))</f>
+        <v/>
+      </c>
+      <c r="K3" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K3),ROW(K3)))="", "",INDIRECT(ADDRESS(COLUMN(K3),ROW(K3))))</f>
+        <v/>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L3),ROW(L3)))="", "",INDIRECT(ADDRESS(COLUMN(L3),ROW(L3))))</f>
+        <v/>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M3),ROW(M3)))="", "",INDIRECT(ADDRESS(COLUMN(M3),ROW(M3))))</f>
+        <v/>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N3),ROW(N3)))="", "",INDIRECT(ADDRESS(COLUMN(N3),ROW(N3))))</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O3),ROW(O3)))="", "",INDIRECT(ADDRESS(COLUMN(O3),ROW(O3))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>IF(jurisdiction!B4="","",jurisdiction!B4)</f>
+        <v>PA</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E4),ROW(E4)))="", "",INDIRECT(ADDRESS(COLUMN(E4),ROW(E4))))</f>
+        <v/>
+      </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(F4),ROW(F4)))="", "",INDIRECT(ADDRESS(COLUMN(F4),ROW(F4))))</f>
+        <v/>
+      </c>
+      <c r="G4" t="str" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(G4),ROW(G4)))="", "",INDIRECT(ADDRESS(COLUMN(G4),ROW(G4))))</f>
+        <v/>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H4),ROW(H4)))="", "",INDIRECT(ADDRESS(COLUMN(H4),ROW(H4))))</f>
+        <v/>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I4),ROW(I4)))="", "",INDIRECT(ADDRESS(COLUMN(I4),ROW(I4))))</f>
+        <v/>
+      </c>
+      <c r="J4" t="str" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J4),ROW(J4)))="", "",INDIRECT(ADDRESS(COLUMN(J4),ROW(J4))))</f>
+        <v/>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K4),ROW(K4)))="", "",INDIRECT(ADDRESS(COLUMN(K4),ROW(K4))))</f>
+        <v/>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L4),ROW(L4)))="", "",INDIRECT(ADDRESS(COLUMN(L4),ROW(L4))))</f>
+        <v/>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M4),ROW(M4)))="", "",INDIRECT(ADDRESS(COLUMN(M4),ROW(M4))))</f>
+        <v/>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N4),ROW(N4)))="", "",INDIRECT(ADDRESS(COLUMN(N4),ROW(N4))))</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O4),ROW(O4)))="", "",INDIRECT(ADDRESS(COLUMN(O4),ROW(O4))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(jurisdiction!B5="","",jurisdiction!B5)</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(F5),ROW(F5)))="", "",INDIRECT(ADDRESS(COLUMN(F5),ROW(F5))))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(G5),ROW(G5)))="", "",INDIRECT(ADDRESS(COLUMN(G5),ROW(G5))))</f>
+        <v/>
+      </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H5),ROW(H5)))="", "",INDIRECT(ADDRESS(COLUMN(H5),ROW(H5))))</f>
+        <v/>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I5),ROW(I5)))="", "",INDIRECT(ADDRESS(COLUMN(I5),ROW(I5))))</f>
+        <v/>
+      </c>
+      <c r="J5" t="str" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J5),ROW(J5)))="", "",INDIRECT(ADDRESS(COLUMN(J5),ROW(J5))))</f>
+        <v/>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K5),ROW(K5)))="", "",INDIRECT(ADDRESS(COLUMN(K5),ROW(K5))))</f>
+        <v/>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L5),ROW(L5)))="", "",INDIRECT(ADDRESS(COLUMN(L5),ROW(L5))))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M5),ROW(M5)))="", "",INDIRECT(ADDRESS(COLUMN(M5),ROW(M5))))</f>
+        <v/>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N5),ROW(N5)))="", "",INDIRECT(ADDRESS(COLUMN(N5),ROW(N5))))</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O5),ROW(O5)))="", "",INDIRECT(ADDRESS(COLUMN(O5),ROW(O5))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(jurisdiction!B6="","",jurisdiction!B6)</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(G6),ROW(G6)))="", "",INDIRECT(ADDRESS(COLUMN(G6),ROW(G6))))</f>
+        <v/>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H6),ROW(H6)))="", "",INDIRECT(ADDRESS(COLUMN(H6),ROW(H6))))</f>
+        <v/>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I6),ROW(I6)))="", "",INDIRECT(ADDRESS(COLUMN(I6),ROW(I6))))</f>
+        <v/>
+      </c>
+      <c r="J6" t="str" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J6),ROW(J6)))="", "",INDIRECT(ADDRESS(COLUMN(J6),ROW(J6))))</f>
+        <v/>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K6),ROW(K6)))="", "",INDIRECT(ADDRESS(COLUMN(K6),ROW(K6))))</f>
+        <v/>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L6),ROW(L6)))="", "",INDIRECT(ADDRESS(COLUMN(L6),ROW(L6))))</f>
+        <v/>
+      </c>
+      <c r="M6" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M6),ROW(M6)))="", "",INDIRECT(ADDRESS(COLUMN(M6),ROW(M6))))</f>
+        <v/>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N6),ROW(N6)))="", "",INDIRECT(ADDRESS(COLUMN(N6),ROW(N6))))</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O6),ROW(O6)))="", "",INDIRECT(ADDRESS(COLUMN(O6),ROW(O6))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(jurisdiction!B7="","",jurisdiction!B7)</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(H7),ROW(H7)))="", "",INDIRECT(ADDRESS(COLUMN(H7),ROW(H7))))</f>
+        <v/>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I7),ROW(I7)))="", "",INDIRECT(ADDRESS(COLUMN(I7),ROW(I7))))</f>
+        <v/>
+      </c>
+      <c r="J7" t="str" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J7),ROW(J7)))="", "",INDIRECT(ADDRESS(COLUMN(J7),ROW(J7))))</f>
+        <v/>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K7),ROW(K7)))="", "",INDIRECT(ADDRESS(COLUMN(K7),ROW(K7))))</f>
+        <v/>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L7),ROW(L7)))="", "",INDIRECT(ADDRESS(COLUMN(L7),ROW(L7))))</f>
+        <v/>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M7),ROW(M7)))="", "",INDIRECT(ADDRESS(COLUMN(M7),ROW(M7))))</f>
+        <v/>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N7),ROW(N7)))="", "",INDIRECT(ADDRESS(COLUMN(N7),ROW(N7))))</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O7),ROW(O7)))="", "",INDIRECT(ADDRESS(COLUMN(O7),ROW(O7))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(jurisdiction!B8="","",jurisdiction!B8)</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(I8),ROW(I8)))="", "",INDIRECT(ADDRESS(COLUMN(I8),ROW(I8))))</f>
+        <v/>
+      </c>
+      <c r="J8" t="str" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J8),ROW(J8)))="", "",INDIRECT(ADDRESS(COLUMN(J8),ROW(J8))))</f>
+        <v/>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K8),ROW(K8)))="", "",INDIRECT(ADDRESS(COLUMN(K8),ROW(K8))))</f>
+        <v/>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L8),ROW(L8)))="", "",INDIRECT(ADDRESS(COLUMN(L8),ROW(L8))))</f>
+        <v/>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M8),ROW(M8)))="", "",INDIRECT(ADDRESS(COLUMN(M8),ROW(M8))))</f>
+        <v/>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N8),ROW(N8)))="", "",INDIRECT(ADDRESS(COLUMN(N8),ROW(N8))))</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O8),ROW(O8)))="", "",INDIRECT(ADDRESS(COLUMN(O8),ROW(O8))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(jurisdiction!B9="","",jurisdiction!B9)</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="str" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(J9),ROW(J9)))="", "",INDIRECT(ADDRESS(COLUMN(J9),ROW(J9))))</f>
+        <v/>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K9),ROW(K9)))="", "",INDIRECT(ADDRESS(COLUMN(K9),ROW(K9))))</f>
+        <v/>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L9),ROW(L9)))="", "",INDIRECT(ADDRESS(COLUMN(L9),ROW(L9))))</f>
+        <v/>
+      </c>
+      <c r="M9" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M9),ROW(M9)))="", "",INDIRECT(ADDRESS(COLUMN(M9),ROW(M9))))</f>
+        <v/>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N9),ROW(N9)))="", "",INDIRECT(ADDRESS(COLUMN(N9),ROW(N9))))</f>
+        <v/>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O9),ROW(O9)))="", "",INDIRECT(ADDRESS(COLUMN(O9),ROW(O9))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(jurisdiction!B10="","",jurisdiction!B10)</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(INDIRECT(ADDRESS(COLUMN(K10),ROW(K10)))="", "",INDIRECT(ADDRESS(COLUMN(K10),ROW(K10))))</f>
+        <v/>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L10),ROW(L10)))="", "",INDIRECT(ADDRESS(COLUMN(L10),ROW(L10))))</f>
+        <v/>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M10),ROW(M10)))="", "",INDIRECT(ADDRESS(COLUMN(M10),ROW(M10))))</f>
+        <v/>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N10),ROW(N10)))="", "",INDIRECT(ADDRESS(COLUMN(N10),ROW(N10))))</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O10),ROW(O10)))="", "",INDIRECT(ADDRESS(COLUMN(O10),ROW(O10))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(jurisdiction!B11="","",jurisdiction!B11)</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">IF(INDIRECT(ADDRESS(COLUMN(L11),ROW(L11)))="", "",INDIRECT(ADDRESS(COLUMN(L11),ROW(L11))))</f>
+        <v/>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M11),ROW(M11)))="", "",INDIRECT(ADDRESS(COLUMN(M11),ROW(M11))))</f>
+        <v/>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N11),ROW(N11)))="", "",INDIRECT(ADDRESS(COLUMN(N11),ROW(N11))))</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O11),ROW(O11)))="", "",INDIRECT(ADDRESS(COLUMN(O11),ROW(O11))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(jurisdiction!B12="","",jurisdiction!B12)</f>
+        <v/>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(INDIRECT(ADDRESS(COLUMN(M12),ROW(M12)))="", "",INDIRECT(ADDRESS(COLUMN(M12),ROW(M12))))</f>
+        <v/>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N12),ROW(N12)))="", "",INDIRECT(ADDRESS(COLUMN(N12),ROW(N12))))</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O12),ROW(O12)))="", "",INDIRECT(ADDRESS(COLUMN(O12),ROW(O12))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(jurisdiction!B13="","",jurisdiction!B13)</f>
+        <v/>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">IF(INDIRECT(ADDRESS(COLUMN(N13),ROW(N13)))="", "",INDIRECT(ADDRESS(COLUMN(N13),ROW(N13))))</f>
+        <v/>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O13),ROW(O13)))="", "",INDIRECT(ADDRESS(COLUMN(O13),ROW(O13))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(jurisdiction!B14="","",jurisdiction!B14)</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">IF(INDIRECT(ADDRESS(COLUMN(O14),ROW(O14)))="", "",INDIRECT(ADDRESS(COLUMN(O14),ROW(O14))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(jurisdiction!B15="","",jurisdiction!B15)</f>
+        <v/>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(jurisdiction!B16="","",jurisdiction!B16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(jurisdiction!B17="","",jurisdiction!B17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(jurisdiction!B18="","",jurisdiction!B18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(jurisdiction!B19="","",jurisdiction!B19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(jurisdiction!B20="","",jurisdiction!B20)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C96AD-7FCE-D24F-B326-0D5D7D33F358}">
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -6595,22 +7266,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC606-5086-1F48-9D1A-C2900FAE3B19}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
+        <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>
         <v>NY</v>
       </c>
       <c r="C1" t="str">
@@ -6619,19 +7290,58 @@
       <c r="D1" t="str">
         <v>PA</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1">
         <v>0</v>
       </c>
-      <c r="F1">
+      <c r="R1">
         <v>0</v>
       </c>
-      <c r="G1">
+      <c r="S1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="T1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>jurisdiction!B2</f>
+        <f>IF(jurisdiction!B2="","",jurisdiction!B2)</f>
         <v>NY</v>
       </c>
       <c r="B2" s="1">
@@ -6653,9 +7363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>jurisdiction!B3</f>
+        <f>IF(jurisdiction!B3="","",jurisdiction!B3)</f>
         <v>NJ</v>
       </c>
       <c r="B3" s="1">
@@ -6677,9 +7387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>jurisdiction!B4</f>
+        <f>IF(jurisdiction!B4="","",jurisdiction!B4)</f>
         <v>PA</v>
       </c>
       <c r="B4" s="1">
@@ -6701,10 +7411,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f>jurisdiction!B5</f>
-        <v>0</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(jurisdiction!B5="","",jurisdiction!B5)</f>
+        <v/>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -6725,10 +7435,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>jurisdiction!B6</f>
-        <v>0</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(jurisdiction!B6="","",jurisdiction!B6)</f>
+        <v/>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -6749,10 +7459,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f>jurisdiction!B7</f>
-        <v>0</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(jurisdiction!B7="","",jurisdiction!B7)</f>
+        <v/>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6771,6 +7481,60 @@
       </c>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(jurisdiction!B8="","",jurisdiction!B8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(jurisdiction!B9="","",jurisdiction!B9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(jurisdiction!B10="","",jurisdiction!B10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(jurisdiction!B11="","",jurisdiction!B11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(jurisdiction!B12="","",jurisdiction!B12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(jurisdiction!B13="","",jurisdiction!B13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(jurisdiction!B14="","",jurisdiction!B14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(jurisdiction!B15="","",jurisdiction!B15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(jurisdiction!B16="","",jurisdiction!B16)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7189F8-46FD-1C4E-9E0C-A580E82C3AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B90B4CB-3E27-A545-958D-3BA7381DAC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1760" windowWidth="22080" windowHeight="15780" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="5" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,6 +1299,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1489,7 +1490,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5012,9 +5013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CF3C4-9881-3046-921C-4AF233771A62}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5086,12 +5085,10 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(C2),ROW(C2)))="", "",INDIRECT(ADDRESS(COLUMN(C2),ROW(C2))))</f>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(D2),ROW(D2)))="", "",INDIRECT(ADDRESS(COLUMN(D2),ROW(D2))))</f>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="str" cm="1">
@@ -5150,9 +5147,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(D3),ROW(D3)))="", "",INDIRECT(ADDRESS(COLUMN(D3),ROW(D3))))</f>
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E3),ROW(E3)))="", "",INDIRECT(ADDRESS(COLUMN(E3),ROW(E3))))</f>
@@ -5208,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B90B4CB-3E27-A545-958D-3BA7381DAC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D31F8-64A3-274D-9D9F-BAE93F3C0D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="5" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>setting</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>p_disease_event</t>
+  </si>
+  <si>
+    <t>Number of simulation patches</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,6 +1173,18 @@
         <v>75</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f>MAX(jurisdiction!A:A)</f>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G24" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,7 +1197,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5013,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CF3C4-9881-3046-921C-4AF233771A62}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D31F8-64A3-274D-9D9F-BAE93F3C0D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CC4FB-C343-D94B-B96D-1954599D8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="4" r:id="rId2"/>
     <sheet name="healthcosts" sheetId="7" r:id="rId3"/>
     <sheet name="jurisdiction" sheetId="2" r:id="rId4"/>
-    <sheet name="beta" sheetId="6" r:id="rId5"/>
+    <sheet name="beta_raw" sheetId="6" r:id="rId5"/>
     <sheet name="coordination" sheetId="8" r:id="rId6"/>
     <sheet name="travel" sheetId="3" r:id="rId7"/>
     <sheet name="relative-mixing" sheetId="5" r:id="rId8"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>setting</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>Number of simulation patches</t>
+  </si>
+  <si>
+    <t>npi_coord_max</t>
+  </si>
+  <si>
+    <t>1 if using max value of NPI strategies, 0 if using weighted sum</t>
+  </si>
+  <si>
+    <t>npi_duration</t>
+  </si>
+  <si>
+    <t>number of days through which NPIs will be used</t>
+  </si>
+  <si>
+    <t>trans_mult</t>
+  </si>
+  <si>
+    <t>transmissibility multiplicative factor used for scenario analysis. Multiplies over the beta matrix.</t>
   </si>
 </sst>
 </file>
@@ -858,10 +876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,6 +1201,39 @@
       </c>
       <c r="C27" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+    <sheetView zoomScale="187" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1504,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5636,73 +5687,73 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
-        <f>IF(beta!A1="","",beta!A1)</f>
+        <f>IF(beta_raw!A1="","",beta_raw!A1)</f>
         <v>jurisdiction</v>
       </c>
       <c r="B1" t="str">
-        <f>beta!B1</f>
+        <f>beta_raw!B1</f>
         <v>NY</v>
       </c>
       <c r="C1" t="str">
-        <f>beta!C1</f>
+        <f>beta_raw!C1</f>
         <v>NJ</v>
       </c>
       <c r="D1" t="str">
-        <f>beta!D1</f>
+        <f>beta_raw!D1</f>
         <v>PA</v>
       </c>
       <c r="E1" t="str">
-        <f>beta!E1</f>
+        <f>beta_raw!E1</f>
         <v/>
       </c>
       <c r="F1" t="str">
-        <f>beta!F1</f>
+        <f>beta_raw!F1</f>
         <v/>
       </c>
       <c r="G1" t="str">
-        <f>beta!G1</f>
+        <f>beta_raw!G1</f>
         <v/>
       </c>
       <c r="H1" t="str">
-        <f>beta!H1</f>
+        <f>beta_raw!H1</f>
         <v/>
       </c>
       <c r="I1" t="str">
-        <f>beta!I1</f>
+        <f>beta_raw!I1</f>
         <v/>
       </c>
       <c r="J1" t="str">
-        <f>beta!J1</f>
+        <f>beta_raw!J1</f>
         <v/>
       </c>
       <c r="K1" t="str">
-        <f>beta!K1</f>
+        <f>beta_raw!K1</f>
         <v/>
       </c>
       <c r="L1" t="str">
-        <f>beta!L1</f>
+        <f>beta_raw!L1</f>
         <v/>
       </c>
       <c r="M1" t="str">
-        <f>beta!M1</f>
+        <f>beta_raw!M1</f>
         <v/>
       </c>
       <c r="N1" t="str">
-        <f>beta!N1</f>
+        <f>beta_raw!N1</f>
         <v/>
       </c>
       <c r="O1" t="str">
-        <f>beta!O1</f>
+        <f>beta_raw!O1</f>
         <v/>
       </c>
       <c r="P1" t="str">
-        <f>beta!P1</f>
+        <f>beta_raw!P1</f>
         <v/>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(beta!A2="","",beta!A2)</f>
+        <f>IF(beta_raw!A2="","",beta_raw!A2)</f>
         <v>NY</v>
       </c>
       <c r="B2">
@@ -5752,7 +5803,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(beta!A3="","",beta!A3)</f>
+        <f>IF(beta_raw!A3="","",beta_raw!A3)</f>
         <v>NJ</v>
       </c>
       <c r="B3">
@@ -5802,7 +5853,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(beta!A4="","",beta!A4)</f>
+        <f>IF(beta_raw!A4="","",beta_raw!A4)</f>
         <v>PA</v>
       </c>
       <c r="B4">
@@ -5852,7 +5903,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(beta!A5="","",beta!A5)</f>
+        <f>IF(beta_raw!A5="","",beta_raw!A5)</f>
         <v/>
       </c>
       <c r="B5" t="str">
@@ -5902,7 +5953,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(beta!A6="","",beta!A6)</f>
+        <f>IF(beta_raw!A6="","",beta_raw!A6)</f>
         <v/>
       </c>
       <c r="B6" t="str">
@@ -5952,7 +6003,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(beta!A7="","",beta!A7)</f>
+        <f>IF(beta_raw!A7="","",beta_raw!A7)</f>
         <v/>
       </c>
       <c r="B7" t="str">
@@ -6002,7 +6053,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(beta!A8="","",beta!A8)</f>
+        <f>IF(beta_raw!A8="","",beta_raw!A8)</f>
         <v/>
       </c>
       <c r="B8" t="str">
@@ -6052,7 +6103,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(beta!A9="","",beta!A9)</f>
+        <f>IF(beta_raw!A9="","",beta_raw!A9)</f>
         <v/>
       </c>
       <c r="B9" t="str">
@@ -6102,7 +6153,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(beta!A10="","",beta!A10)</f>
+        <f>IF(beta_raw!A10="","",beta_raw!A10)</f>
         <v/>
       </c>
       <c r="B10" t="str">
@@ -6152,7 +6203,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(beta!A11="","",beta!A11)</f>
+        <f>IF(beta_raw!A11="","",beta_raw!A11)</f>
         <v/>
       </c>
       <c r="B11" t="str">
@@ -6202,7 +6253,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(beta!A12="","",beta!A12)</f>
+        <f>IF(beta_raw!A12="","",beta_raw!A12)</f>
         <v/>
       </c>
       <c r="B12" t="str">
@@ -6252,7 +6303,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(beta!A13="","",beta!A13)</f>
+        <f>IF(beta_raw!A13="","",beta_raw!A13)</f>
         <v/>
       </c>
       <c r="B13" t="str">
@@ -6302,7 +6353,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(beta!A14="","",beta!A14)</f>
+        <f>IF(beta_raw!A14="","",beta_raw!A14)</f>
         <v/>
       </c>
       <c r="B14" t="str">
@@ -6352,7 +6403,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(beta!A15="","",beta!A15)</f>
+        <f>IF(beta_raw!A15="","",beta_raw!A15)</f>
         <v/>
       </c>
       <c r="B15" t="str">
@@ -6402,7 +6453,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(beta!A16="","",beta!A16)</f>
+        <f>IF(beta_raw!A16="","",beta_raw!A16)</f>
         <v/>
       </c>
       <c r="B16" t="str">
@@ -6452,7 +6503,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(beta!A17="","",beta!A17)</f>
+        <f>IF(beta_raw!A17="","",beta_raw!A17)</f>
         <v/>
       </c>
       <c r="B17" t="str">
@@ -6502,7 +6553,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(beta!A18="","",beta!A18)</f>
+        <f>IF(beta_raw!A18="","",beta_raw!A18)</f>
         <v/>
       </c>
       <c r="B18" t="str">
@@ -6552,7 +6603,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(beta!A19="","",beta!A19)</f>
+        <f>IF(beta_raw!A19="","",beta_raw!A19)</f>
         <v/>
       </c>
       <c r="B19" t="str">
@@ -6602,7 +6653,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(beta!A20="","",beta!A20)</f>
+        <f>IF(beta_raw!A20="","",beta_raw!A20)</f>
         <v/>
       </c>
       <c r="B20" t="str">
@@ -6652,7 +6703,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(beta!A21="","",beta!A21)</f>
+        <f>IF(beta_raw!A21="","",beta_raw!A21)</f>
         <v/>
       </c>
       <c r="B21" t="str">
@@ -6702,7 +6753,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(beta!A22="","",beta!A22)</f>
+        <f>IF(beta_raw!A22="","",beta_raw!A22)</f>
         <v/>
       </c>
       <c r="B22" t="str">
@@ -6752,7 +6803,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(beta!A23="","",beta!A23)</f>
+        <f>IF(beta_raw!A23="","",beta_raw!A23)</f>
         <v/>
       </c>
       <c r="B23" t="str">
@@ -6802,7 +6853,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(beta!A24="","",beta!A24)</f>
+        <f>IF(beta_raw!A24="","",beta_raw!A24)</f>
         <v/>
       </c>
       <c r="B24" t="str">
@@ -6852,7 +6903,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(beta!A25="","",beta!A25)</f>
+        <f>IF(beta_raw!A25="","",beta_raw!A25)</f>
         <v/>
       </c>
       <c r="B25" t="str">
@@ -6902,7 +6953,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(beta!A26="","",beta!A26)</f>
+        <f>IF(beta_raw!A26="","",beta_raw!A26)</f>
         <v/>
       </c>
       <c r="B26" t="str">
@@ -6952,7 +7003,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(beta!A27="","",beta!A27)</f>
+        <f>IF(beta_raw!A27="","",beta_raw!A27)</f>
         <v/>
       </c>
       <c r="B27" t="str">
@@ -7002,7 +7053,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(beta!A28="","",beta!A28)</f>
+        <f>IF(beta_raw!A28="","",beta_raw!A28)</f>
         <v/>
       </c>
       <c r="B28" t="str">
@@ -7052,7 +7103,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(beta!A29="","",beta!A29)</f>
+        <f>IF(beta_raw!A29="","",beta_raw!A29)</f>
         <v/>
       </c>
       <c r="B29" t="str">
@@ -7102,7 +7153,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(beta!A30="","",beta!A30)</f>
+        <f>IF(beta_raw!A30="","",beta_raw!A30)</f>
         <v/>
       </c>
       <c r="B30" t="str">
@@ -7152,7 +7203,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(beta!A31="","",beta!A31)</f>
+        <f>IF(beta_raw!A31="","",beta_raw!A31)</f>
         <v/>
       </c>
       <c r="B31" t="str">
@@ -7202,73 +7253,73 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(beta!A32="","",beta!A32)</f>
+        <f>IF(beta_raw!A32="","",beta_raw!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(beta!A33="","",beta!A33)</f>
+        <f>IF(beta_raw!A33="","",beta_raw!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(beta!A34="","",beta!A34)</f>
+        <f>IF(beta_raw!A34="","",beta_raw!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(beta!A35="","",beta!A35)</f>
+        <f>IF(beta_raw!A35="","",beta_raw!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(beta!A36="","",beta!A36)</f>
+        <f>IF(beta_raw!A36="","",beta_raw!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(beta!A37="","",beta!A37)</f>
+        <f>IF(beta_raw!A37="","",beta_raw!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(beta!A38="","",beta!A38)</f>
+        <f>IF(beta_raw!A38="","",beta_raw!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(beta!A39="","",beta!A39)</f>
+        <f>IF(beta_raw!A39="","",beta_raw!A39)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(beta!A40="","",beta!A40)</f>
+        <f>IF(beta_raw!A40="","",beta_raw!A40)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(beta!A41="","",beta!A41)</f>
+        <f>IF(beta_raw!A41="","",beta_raw!A41)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(beta!A42="","",beta!A42)</f>
+        <f>IF(beta_raw!A42="","",beta_raw!A42)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(beta!A43="","",beta!A43)</f>
+        <f>IF(beta_raw!A43="","",beta_raw!A43)</f>
         <v/>
       </c>
     </row>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CC4FB-C343-D94B-B96D-1954599D8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C008A-98CB-1245-8FBB-F795DE9639DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="relative-mixing" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$F$24</definedName>
     <definedName name="c_">parameters!$B$6</definedName>
     <definedName name="C_surv">parameters!$B$12</definedName>
     <definedName name="days_to_adjust_NPI">parameters!$B$8</definedName>
@@ -60,11 +60,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={AA1D9824-023F-4443-9617-3E967B6A10FE}</author>
     <author>tc={E3294B68-B3C5-4A43-B614-3E4CB6542780}</author>
     <author>tc={3844B481-F1F1-B448-A37D-14DB0AD39FFD}</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +83,7 @@
     This is the maximum prevalence the hospital system can possibly take.</t>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+    <comment ref="B22" authorId="2" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>setting</t>
   </si>
@@ -196,9 +205,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>distribution</t>
-  </si>
-  <si>
     <t>jurisdiction</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
   </si>
   <si>
     <t>transmissibility multiplicative factor used for scenario analysis. Multiplies over the beta matrix.</t>
+  </si>
+  <si>
+    <t>L_max</t>
+  </si>
+  <si>
+    <t>maximum intervention level.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +449,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -467,7 +493,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -481,6 +507,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -804,6 +831,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2023-09-13T14:17:26.59" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
+    <text>These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</text>
+  </threadedComment>
   <threadedComment ref="B21" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>60% baseline utilization * 2.38 hospital beds per 1000 people</text>
   </threadedComment>
@@ -876,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,54 +917,51 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <f>1/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -943,235 +970,235 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
         <f>35*10^5</f>
         <v>3500000</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
       </c>
       <c r="B11" s="3">
         <v>5000</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>10000000</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
       </c>
       <c r="B14" s="7">
         <v>0.05</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9">
         <v>0.02</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="11">
         <v>0.5</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="10">
         <f>0.7*2.38/1000/B15</f>
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10">
         <f>B21*0.9</f>
         <v>7.4969999999999995E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>279113</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>13.8</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1182,13 +1209,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,44 +1227,55 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>1000</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G24" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
+  <autoFilter ref="A1:F24" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1262,24 +1300,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1296,7 +1334,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1313,7 +1351,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1330,7 +1368,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1382,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1438,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1555,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+    <sheetView zoomScale="169" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>
@@ -7340,7 +7378,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C008A-98CB-1245-8FBB-F795DE9639DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10447437-3624-A849-8D94-FE60F686EFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
@@ -394,12 +394,6 @@
     <t>Number of simulation patches</t>
   </si>
   <si>
-    <t>npi_coord_max</t>
-  </si>
-  <si>
-    <t>1 if using max value of NPI strategies, 0 if using weighted sum</t>
-  </si>
-  <si>
     <t>npi_duration</t>
   </si>
   <si>
@@ -416,6 +410,12 @@
   </si>
   <si>
     <t>maximum intervention level.</t>
+  </si>
+  <si>
+    <t>is_npi_coordinated</t>
+  </si>
+  <si>
+    <t>1 if yes, 0 if no</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,12 +457,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -909,7 +903,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1229,7 @@
         <v>77</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
@@ -1246,7 +1240,7 @@
         <v>79</v>
       </c>
       <c r="B29">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
@@ -1257,7 +1251,7 @@
         <v>81</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
@@ -1268,7 +1262,7 @@
         <v>83</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
@@ -1394,7 +1388,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10447437-3624-A849-8D94-FE60F686EFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18639176-F345-D24A-9032-66142D67976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>setting</t>
   </si>
@@ -229,12 +229,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>obs_lag</t>
-  </si>
-  <si>
-    <t>days_to_adjust_NPI</t>
-  </si>
-  <si>
     <t>cost.npi</t>
   </si>
   <si>
@@ -394,15 +388,9 @@
     <t>Number of simulation patches</t>
   </si>
   <si>
-    <t>npi_duration</t>
-  </si>
-  <si>
     <t>number of days through which NPIs will be used</t>
   </si>
   <si>
-    <t>trans_mult</t>
-  </si>
-  <si>
     <t>transmissibility multiplicative factor used for scenario analysis. Multiplies over the beta matrix.</t>
   </si>
   <si>
@@ -412,10 +400,25 @@
     <t>maximum intervention level.</t>
   </si>
   <si>
-    <t>is_npi_coordinated</t>
-  </si>
-  <si>
-    <t>1 if yes, 0 if no</t>
+    <t>t_o</t>
+  </si>
+  <si>
+    <t>surv_lag</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Days to adjust NPIs</t>
+  </si>
+  <si>
+    <t>beta_mult</t>
+  </si>
+  <si>
+    <t>L_c</t>
+  </si>
+  <si>
+    <t>Are NPI coordinated? 1 if yes, 0 if no</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +946,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -980,12 +983,12 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -993,206 +996,209 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>35*10^5</f>
         <v>3500000</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>5000</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>10000000</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7">
         <v>0.05</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9">
         <v>0.02</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="11">
         <v>0.5</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="10">
         <f>0.7*2.38/1000/B15</f>
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="10">
         <f>B21*0.9</f>
         <v>7.4969999999999995E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>279113</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>13.8</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1203,13 +1209,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,51 +1227,51 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>1000</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1294,24 +1300,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1345,7 +1351,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1414,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18639176-F345-D24A-9032-66142D67976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E47F85-BFF9-1941-B4FC-68A65AEE10A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,19 @@
     <sheet name="relative-mixing" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$23</definedName>
     <definedName name="c_">parameters!$B$6</definedName>
-    <definedName name="C_surv">parameters!$B$12</definedName>
-    <definedName name="days_to_adjust_NPI">parameters!$B$8</definedName>
+    <definedName name="C_surv">parameters!$B$11</definedName>
+    <definedName name="days_to_adjust_NPI">parameters!#REF!</definedName>
     <definedName name="delta">parameters!$B$3</definedName>
     <definedName name="gamma">parameters!$B$4</definedName>
-    <definedName name="o">parameters!$B$11</definedName>
+    <definedName name="o">parameters!$B$10</definedName>
     <definedName name="obs_lag">parameters!$B$7</definedName>
-    <definedName name="r_">parameters!$B$9</definedName>
+    <definedName name="r_">parameters!$B$8</definedName>
     <definedName name="sigma">parameters!$B$2</definedName>
     <definedName name="tau">parameters!$B$5</definedName>
-    <definedName name="VSLY">parameters!$B$24</definedName>
-    <definedName name="w">parameters!$B$10</definedName>
+    <definedName name="VSLY">parameters!$B$23</definedName>
+    <definedName name="w">parameters!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
     <author>tc={3844B481-F1F1-B448-A37D-14DB0AD39FFD}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
     These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</t>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +83,7 @@
     This is the maximum prevalence the hospital system can possibly take.</t>
       </text>
     </comment>
-    <comment ref="B22" authorId="2" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+    <comment ref="B21" authorId="2" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,6 +99,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3923A521-C738-1645-9DCB-AA81E40599DC}</author>
+    <author>tc={597AEF28-8C89-5445-8D27-6B5A56E2DFB0}</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3923A521-C738-1645-9DCB-AA81E40599DC}">
@@ -113,7 +114,17 @@
 Reply:
     Under those assumptions, a lockdown costs around $ 200 / person per day, and an intervention level 1 costs around $40.
 Reply:
-    The formula for that approach is =70000/365/5</t>
+    The formula for that approach is =70000/365/5
+Reply:
+    =0.3*70000/365/5</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{597AEF28-8C89-5445-8D27-6B5A56E2DFB0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    100 = the cost of one year of lockdown.</t>
       </text>
     </comment>
   </commentList>
@@ -161,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>setting</t>
   </si>
@@ -271,18 +282,12 @@
     <t>relative.mixing</t>
   </si>
   <si>
-    <t>Intervention stringency</t>
-  </si>
-  <si>
     <t>from https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(21)02867-1/fulltext</t>
   </si>
   <si>
     <t>age-adjusted infection fatality rate</t>
   </si>
   <si>
-    <t xml:space="preserve">1/time from exposed </t>
-  </si>
-  <si>
     <t>IHR</t>
   </si>
   <si>
@@ -406,12 +411,6 @@
     <t>surv_lag</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Days to adjust NPIs</t>
-  </si>
-  <si>
     <t>beta_mult</t>
   </si>
   <si>
@@ -419,6 +418,45 @@
   </si>
   <si>
     <t>Are NPI coordinated? 1 if yes, 0 if no</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>case ascertainment rate: probability that a case will be detected as a case.</t>
+  </si>
+  <si>
+    <t>a_up</t>
+  </si>
+  <si>
+    <t>a_down</t>
+  </si>
+  <si>
+    <t>Intervention case threshold (recall it is adjusted for case ascertainment bias)</t>
+  </si>
+  <si>
+    <t>Surveillance lag (relative to time of infection): I.e., a case is reported 14 days after the infection has happened.</t>
+  </si>
+  <si>
+    <t>aux</t>
+  </si>
+  <si>
+    <t>1/time from pre-symptomatic to infected</t>
+  </si>
+  <si>
+    <t>1/time from infected to removed</t>
+  </si>
+  <si>
+    <t>Intervention effectiveness per intervention level (i.e., % contact reduction induced by intervention)</t>
+  </si>
+  <si>
+    <t>Lag to increase interventions: Number of days to adjust interventions when interventions are increasing</t>
+  </si>
+  <si>
+    <t>Lag to decrease interventions: Number of days to adjust interventions when interventions are decreasing</t>
+  </si>
+  <si>
+    <t>1/time from exposed to pre-symptomatic (undetected period)</t>
   </si>
 </sst>
 </file>
@@ -428,8 +466,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -497,14 +535,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -828,16 +866,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-09-13T14:17:26.59" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
+  <threadedComment ref="E1" dT="2023-09-13T14:17:26.59" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
     <text>These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</text>
   </threadedComment>
-  <threadedComment ref="B21" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="B20" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>60% baseline utilization * 2.38 hospital beds per 1000 people</text>
   </threadedComment>
-  <threadedComment ref="B21" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="B20" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>This is the maximum prevalence the hospital system can possibly take.</text>
   </threadedComment>
-  <threadedComment ref="B22" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+  <threadedComment ref="B21" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
     <text>This is the prevalence at which the IFR is at the midpoint between normal and a worst-case scenario</text>
   </threadedComment>
 </ThreadedComments>
@@ -857,6 +895,12 @@
   </threadedComment>
   <threadedComment ref="E1" dT="2023-07-26T19:38:56.92" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{D425BAE2-DA4C-EE40-9E3E-5020E999B017}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
     <text>The formula for that approach is =70000/365/5</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2023-10-11T20:20:03.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{DA278ABE-81C0-9940-AFA2-334D330E6466}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
+    <text>=0.3*70000/365/5</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2023-10-11T20:20:57.96" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{597AEF28-8C89-5445-8D27-6B5A56E2DFB0}">
+    <text>100 = the cost of one year of lockdown.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -903,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,30 +958,34 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -946,10 +994,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <f>1/sigma</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -957,8 +1009,15 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <f>1/delta</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -966,316 +1025,351 @@
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <f>1/gamma</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.01</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B9" s="4">
         <f>35*10^5</f>
         <v>3500000</v>
       </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5000</v>
+      </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
-        <v>5000</v>
+        <v>10000000</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10000000</v>
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>2.5</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.05</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.05</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.02</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.02</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
-        <v>90</v>
+      <c r="B18" s="10">
+        <v>0.5</v>
       </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9">
+        <f>0.7*2.38/1000/B14</f>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9">
+        <f>B20*0.9</f>
+        <v>7.4969999999999995E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="10">
-        <f>0.7*2.38/1000/B15</f>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10">
-        <f>B21*0.9</f>
-        <v>7.4969999999999995E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>1.5</v>
+        <v>279113</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>279113</v>
+        <v>13.8</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="B25">
-        <v>13.8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <f>MAX(jurisdiction!A:A)</f>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B27">
-        <f>MAX(jurisdiction!A:A)</f>
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
       <c r="B28">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>85</v>
       </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
+  <autoFilter ref="A1:G23" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1300,24 +1394,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1334,7 +1428,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1351,7 +1445,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1368,7 +1462,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1393,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,12 +1531,11 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <f>10^7</f>
-        <v>10000000</v>
-      </c>
-      <c r="E2" s="6">
-        <f>70000/365/5</f>
-        <v>38.356164383561648</v>
+        <v>100000</v>
+      </c>
+      <c r="E2" s="13">
+        <f>100/365/5</f>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1460,12 +1553,11 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f>10^7</f>
-        <v>10000000</v>
-      </c>
-      <c r="E3" s="6">
-        <f>70000/365/5</f>
-        <v>38.356164383561648</v>
+        <v>100000</v>
+      </c>
+      <c r="E3" s="13">
+        <f>100/365/5</f>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1482,12 +1574,11 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <f>10^7</f>
-        <v>10000000</v>
-      </c>
-      <c r="E4" s="6">
-        <f>70000/365/5</f>
-        <v>38.356164383561648</v>
+        <v>100000</v>
+      </c>
+      <c r="E4" s="13">
+        <f>100/365/5</f>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="F4">
         <v>0.9</v>
@@ -1667,64 +1758,64 @@
         <f>IF(jurisdiction!B2="", "", jurisdiction!B2)</f>
         <v>NY</v>
       </c>
-      <c r="B2" s="8">
-        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B2" s="7">
+        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>2.375</v>
       </c>
-      <c r="C2" s="8">
-        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="C2" s="7">
+        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D2" s="8">
-        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="D2" s="7">
+        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P2" s="8" t="str">
-        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$F2*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="E2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P2" s="7" t="str">
+        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -1733,64 +1824,64 @@
         <f>IF(jurisdiction!B3="", "", jurisdiction!B3)</f>
         <v>NJ</v>
       </c>
-      <c r="B3" s="8">
-        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B3" s="7">
+        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="8">
-        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="C3" s="7">
+        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>2.375</v>
       </c>
-      <c r="D3" s="8">
-        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="D3" s="7">
+        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P3" s="8" t="str">
-        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$F3*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="E3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -1799,64 +1890,64 @@
         <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
         <v>PA</v>
       </c>
-      <c r="B4" s="8">
-        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B4" s="7">
+        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="C4" s="8">
-        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="C4" s="7">
+        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="D4" s="8">
-        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="D4" s="7">
+        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v>2.1374999999999997</v>
       </c>
-      <c r="E4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P4" s="8" t="str">
-        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$F4*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="E4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -1865,64 +1956,64 @@
         <f>IF(jurisdiction!B5="", "", jurisdiction!B5)</f>
         <v/>
       </c>
-      <c r="B5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P5" s="8" t="str">
-        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$F5*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -1931,64 +2022,64 @@
         <f>IF(jurisdiction!B6="", "", jurisdiction!B6)</f>
         <v/>
       </c>
-      <c r="B6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P6" s="8" t="str">
-        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$F6*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -1997,64 +2088,64 @@
         <f>IF(jurisdiction!B7="", "", jurisdiction!B7)</f>
         <v/>
       </c>
-      <c r="B7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="8" t="str">
-        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$F7*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2063,64 +2154,64 @@
         <f>IF(jurisdiction!B8="", "", jurisdiction!B8)</f>
         <v/>
       </c>
-      <c r="B8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P8" s="8" t="str">
-        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$F8*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2129,64 +2220,64 @@
         <f>IF(jurisdiction!B9="", "", jurisdiction!B9)</f>
         <v/>
       </c>
-      <c r="B9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="8" t="str">
-        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$F9*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2195,64 +2286,64 @@
         <f>IF(jurisdiction!B10="", "", jurisdiction!B10)</f>
         <v/>
       </c>
-      <c r="B10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="8" t="str">
-        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$F10*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2261,64 +2352,64 @@
         <f>IF(jurisdiction!B11="", "", jurisdiction!B11)</f>
         <v/>
       </c>
-      <c r="B11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="8" t="str">
-        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$F11*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2327,64 +2418,64 @@
         <f>IF(jurisdiction!B12="", "", jurisdiction!B12)</f>
         <v/>
       </c>
-      <c r="B12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P12" s="8" t="str">
-        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$F12*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2393,64 +2484,64 @@
         <f>IF(jurisdiction!B13="", "", jurisdiction!B13)</f>
         <v/>
       </c>
-      <c r="B13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P13" s="8" t="str">
-        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$F13*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2459,64 +2550,64 @@
         <f>IF(jurisdiction!B14="", "", jurisdiction!B14)</f>
         <v/>
       </c>
-      <c r="B14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="8" t="str">
-        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$F14*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2525,64 +2616,64 @@
         <f>IF(jurisdiction!B15="", "", jurisdiction!B15)</f>
         <v/>
       </c>
-      <c r="B15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="8" t="str">
-        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$F15*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2591,64 +2682,64 @@
         <f>IF(jurisdiction!B16="", "", jurisdiction!B16)</f>
         <v/>
       </c>
-      <c r="B16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P16" s="8" t="str">
-        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$F16*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2657,64 +2748,64 @@
         <f>IF(jurisdiction!B17="", "", jurisdiction!B17)</f>
         <v/>
       </c>
-      <c r="B17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P17" s="8" t="str">
-        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$F17*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2723,64 +2814,64 @@
         <f>IF(jurisdiction!B18="", "", jurisdiction!B18)</f>
         <v/>
       </c>
-      <c r="B18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P18" s="8" t="str">
-        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$F18*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2789,64 +2880,64 @@
         <f>IF(jurisdiction!B19="", "", jurisdiction!B19)</f>
         <v/>
       </c>
-      <c r="B19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="8" t="str">
-        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$F19*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2855,64 +2946,64 @@
         <f>IF(jurisdiction!B20="", "", jurisdiction!B20)</f>
         <v/>
       </c>
-      <c r="B20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="8" t="str">
-        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$F20*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2921,64 +3012,64 @@
         <f>IF(jurisdiction!B21="", "", jurisdiction!B21)</f>
         <v/>
       </c>
-      <c r="B21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P21" s="8" t="str">
-        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$F21*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -2987,64 +3078,64 @@
         <f>IF(jurisdiction!B22="", "", jurisdiction!B22)</f>
         <v/>
       </c>
-      <c r="B22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="8" t="str">
-        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$F22*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3053,64 +3144,64 @@
         <f>IF(jurisdiction!B23="", "", jurisdiction!B23)</f>
         <v/>
       </c>
-      <c r="B23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P23" s="8" t="str">
-        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$F23*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3119,64 +3210,64 @@
         <f>IF(jurisdiction!B24="", "", jurisdiction!B24)</f>
         <v/>
       </c>
-      <c r="B24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="8" t="str">
-        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$F24*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P24" s="7" t="str">
+        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3185,64 +3276,64 @@
         <f>IF(jurisdiction!B25="", "", jurisdiction!B25)</f>
         <v/>
       </c>
-      <c r="B25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P25" s="8" t="str">
-        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$F25*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3251,64 +3342,64 @@
         <f>IF(jurisdiction!B26="", "", jurisdiction!B26)</f>
         <v/>
       </c>
-      <c r="B26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="8" t="str">
-        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$F26*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P26" s="7" t="str">
+        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3317,64 +3408,64 @@
         <f>IF(jurisdiction!B27="", "", jurisdiction!B27)</f>
         <v/>
       </c>
-      <c r="B27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="8" t="str">
-        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$F27*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3383,64 +3474,64 @@
         <f>IF(jurisdiction!B28="", "", jurisdiction!B28)</f>
         <v/>
       </c>
-      <c r="B28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="8" t="str">
-        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$F28*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3449,64 +3540,64 @@
         <f>IF(jurisdiction!B29="", "", jurisdiction!B29)</f>
         <v/>
       </c>
-      <c r="B29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="8" t="str">
-        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$F29*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P29" s="7" t="str">
+        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3515,64 +3606,64 @@
         <f>IF(jurisdiction!B30="", "", jurisdiction!B30)</f>
         <v/>
       </c>
-      <c r="B30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="8" t="str">
-        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$F30*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3581,64 +3672,64 @@
         <f>IF(jurisdiction!B31="", "", jurisdiction!B31)</f>
         <v/>
       </c>
-      <c r="B31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P31" s="8" t="str">
-        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$F31*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3647,64 +3738,64 @@
         <f>IF(jurisdiction!B32="", "", jurisdiction!B32)</f>
         <v/>
       </c>
-      <c r="B32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="8" t="str">
-        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$F32*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3713,64 +3804,64 @@
         <f>IF(jurisdiction!B33="", "", jurisdiction!B33)</f>
         <v/>
       </c>
-      <c r="B33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="8" t="str">
-        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$F33*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="7" t="str">
+        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3779,64 +3870,64 @@
         <f>IF(jurisdiction!B34="", "", jurisdiction!B34)</f>
         <v/>
       </c>
-      <c r="B34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="8" t="str">
-        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$F34*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P34" s="7" t="str">
+        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3845,64 +3936,64 @@
         <f>IF(jurisdiction!B35="", "", jurisdiction!B35)</f>
         <v/>
       </c>
-      <c r="B35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="8" t="str">
-        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$F35*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P35" s="7" t="str">
+        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3911,64 +4002,64 @@
         <f>IF(jurisdiction!B36="", "", jurisdiction!B36)</f>
         <v/>
       </c>
-      <c r="B36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="8" t="str">
-        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$F36*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P36" s="7" t="str">
+        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -3977,64 +4068,64 @@
         <f>IF(jurisdiction!B37="", "", jurisdiction!B37)</f>
         <v/>
       </c>
-      <c r="B37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="8" t="str">
-        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$F37*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P37" s="7" t="str">
+        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -4043,64 +4134,64 @@
         <f>IF(jurisdiction!B38="", "", jurisdiction!B38)</f>
         <v/>
       </c>
-      <c r="B38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="8" t="str">
-        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$F38*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P38" s="7" t="str">
+        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -4109,64 +4200,64 @@
         <f>IF(jurisdiction!B39="", "", jurisdiction!B39)</f>
         <v/>
       </c>
-      <c r="B39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="8" t="str">
-        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$F39*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P39" s="7" t="str">
+        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -4175,64 +4266,64 @@
         <f>IF(jurisdiction!B40="", "", jurisdiction!B40)</f>
         <v/>
       </c>
-      <c r="B40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P40" s="8" t="str">
-        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$F40*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P40" s="7" t="str">
+        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
@@ -4241,870 +4332,870 @@
         <f>IF(jurisdiction!B41="", "", jurisdiction!B41)</f>
         <v/>
       </c>
-      <c r="B41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P41" s="8" t="str">
-        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$F41*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P41" s="7" t="str">
+        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="8" t="str">
-        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$F42*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P42" s="7" t="str">
+        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="8" t="str">
-        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$F43*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P43" s="7" t="str">
+        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="8" t="str">
-        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$F44*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P44" s="7" t="str">
+        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="8" t="str">
-        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$F45*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P45" s="7" t="str">
+        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P46" s="8" t="str">
-        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$F46*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P46" s="7" t="str">
+        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="8" t="str">
-        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$F47*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P47" s="7" t="str">
+        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="8" t="str">
-        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$F48*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P48" s="7" t="str">
+        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="8" t="str">
-        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$F49*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P49" s="7" t="str">
+        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="8" t="str">
-        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$F50*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P50" s="7" t="str">
+        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="8" t="str">
-        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$F51*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P51" s="7" t="str">
+        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P52" s="8" t="str">
-        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$F52*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="7" t="str">
+        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P53" s="8" t="str">
-        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$F53*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="7" t="str">
+        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P54" s="8" t="str">
-        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$F54*parameters!$B$13*parameters!$B$14/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$13*(1-parameters!$B$14)), "")</f>
+      <c r="B54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="C54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="E54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="I54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="J54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="7" t="str">
+        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
         <v/>
       </c>
     </row>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E47F85-BFF9-1941-B4FC-68A65AEE10A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8EB87-92C0-9542-BC61-A8458814F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="18300" yWindow="-20600" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,18 @@
     <sheet name="relative-mixing" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$G$22</definedName>
     <definedName name="c_">parameters!$B$6</definedName>
-    <definedName name="C_surv">parameters!$B$11</definedName>
+    <definedName name="C_surv">parameters!$B$10</definedName>
     <definedName name="days_to_adjust_NPI">parameters!#REF!</definedName>
     <definedName name="delta">parameters!$B$3</definedName>
     <definedName name="gamma">parameters!$B$4</definedName>
-    <definedName name="o">parameters!$B$10</definedName>
+    <definedName name="o">parameters!#REF!</definedName>
     <definedName name="obs_lag">parameters!$B$7</definedName>
     <definedName name="r_">parameters!$B$8</definedName>
     <definedName name="sigma">parameters!$B$2</definedName>
     <definedName name="tau">parameters!$B$5</definedName>
-    <definedName name="VSLY">parameters!$B$23</definedName>
+    <definedName name="VSLY">parameters!$B$22</definedName>
     <definedName name="w">parameters!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,6 +63,7 @@
     <author>tc={AA1D9824-023F-4443-9617-3E967B6A10FE}</author>
     <author>tc={E3294B68-B3C5-4A43-B614-3E4CB6542780}</author>
     <author>tc={3844B481-F1F1-B448-A37D-14DB0AD39FFD}</author>
+    <author>tc={0A493894-0BE2-3646-9CA8-F6EB43E39E12}</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
@@ -73,7 +74,7 @@
     These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</t>
       </text>
     </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,12 +84,21 @@
     This is the maximum prevalence the hospital system can possibly take.</t>
       </text>
     </comment>
-    <comment ref="B21" authorId="2" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+    <comment ref="B20" authorId="2" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is the prevalence at which the IFR is at the midpoint between normal and a worst-case scenario</t>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="3" shapeId="0" xr:uid="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This paper clarifies the difference between Willingess to pay to avoid risk and willingness to accept new risk, and argues that WTA is more appropriate:
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</t>
       </text>
     </comment>
   </commentList>
@@ -98,33 +108,15 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3923A521-C738-1645-9DCB-AA81E40599DC}</author>
-    <author>tc={597AEF28-8C89-5445-8D27-6B5A56E2DFB0}</author>
+    <author>tc={7A40F35E-5403-7440-89F4-BBC6642F205E}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3923A521-C738-1645-9DCB-AA81E40599DC}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Per person, per day for intervention level 1.
-Reply:
-    Let’s assume we are willing to pay a GDP per capita (around 70k) to avoid an intervention level number five.
-Also, assume intervention effectiveness is independent of cost.
-Reply:
-    Under those assumptions, a lockdown costs around $ 200 / person per day, and an intervention level 1 costs around $40.
-Reply:
-    The formula for that approach is =70000/365/5
-Reply:
-    =0.3*70000/365/5</t>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{597AEF28-8C89-5445-8D27-6B5A56E2DFB0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    100 = the cost of one year of lockdown.</t>
+    To be computed in pre-processing</t>
       </text>
     </comment>
   </commentList>
@@ -172,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>setting</t>
   </si>
@@ -246,18 +238,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cost of death for the average person who dies from the disease.</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>other costs of infection</t>
-  </si>
-  <si>
     <t>C_surv</t>
   </si>
   <si>
@@ -457,19 +437,32 @@
   </si>
   <si>
     <t>1/time from exposed to pre-symptomatic (undetected period)</t>
+  </si>
+  <si>
+    <t>gdp.per.capita</t>
+  </si>
+  <si>
+    <t>cost as a fraction of GDP. This is the median of Strong and Welburn's estimates for scenario 5</t>
+  </si>
+  <si>
+    <t>cost_max_npi</t>
+  </si>
+  <si>
+    <t>ly_lost_death</t>
+  </si>
+  <si>
+    <t>average remaining life expectancy of the population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +491,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,12 +527,11 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -542,7 +540,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -869,38 +867,32 @@
   <threadedComment ref="E1" dT="2023-09-13T14:17:26.59" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{AA1D9824-023F-4443-9617-3E967B6A10FE}">
     <text>These *are not* used in the code, they are here solely for our reference. The code itself specifies the values for these parameters.</text>
   </threadedComment>
-  <threadedComment ref="B20" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="B19" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>60% baseline utilization * 2.38 hospital beds per 1000 people</text>
   </threadedComment>
-  <threadedComment ref="B20" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="B19" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>This is the maximum prevalence the hospital system can possibly take.</text>
   </threadedComment>
-  <threadedComment ref="B21" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+  <threadedComment ref="B20" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
     <text>This is the prevalence at which the IFR is at the midpoint between normal and a worst-case scenario</text>
+  </threadedComment>
+  <threadedComment ref="C22" dT="2023-10-12T12:09:36.52" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
+    <text>This paper clarifies the difference between Willingess to pay to avoid risk and willingness to accept new risk, and argues that WTA is more appropriate:
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3830971097</xltc2:checksum>
+        <xltc2:hyperlink startIndex="154" length="53" url="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/"/>
+      </x:ext>
+    </extLst>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2023-07-26T15:18:21.66" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3923A521-C738-1645-9DCB-AA81E40599DC}">
-    <text>Per person, per day for intervention level 1.</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-07-26T15:19:10.48" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{FE2EFBE7-2297-AB4E-A8ED-C972A504AA5F}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
-    <text>Let’s assume we are willing to pay a GDP per capita (around 70k) to avoid an intervention level number five.
-Also, assume intervention effectiveness is independent of cost.</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-07-26T15:23:23.32" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{2FBBB01D-92B2-A34E-9277-511FFFC13A05}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
-    <text>Under those assumptions, a lockdown costs around $ 200 / person per day, and an intervention level 1 costs around $40.</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-07-26T19:38:56.92" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{D425BAE2-DA4C-EE40-9E3E-5020E999B017}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
-    <text>The formula for that approach is =70000/365/5</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-10-11T20:20:03.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{DA278ABE-81C0-9940-AFA2-334D330E6466}" parentId="{3923A521-C738-1645-9DCB-AA81E40599DC}">
-    <text>=0.3*70000/365/5</text>
-  </threadedComment>
-  <threadedComment ref="E2" dT="2023-10-11T20:20:57.96" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{597AEF28-8C89-5445-8D27-6B5A56E2DFB0}">
-    <text>100 = the cost of one year of lockdown.</text>
+  <threadedComment ref="F1" dT="2023-10-12T11:46:57.75" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
+    <text>To be computed in pre-processing</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -949,39 +941,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -994,7 +986,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <f>1/sigma</f>
@@ -1010,7 +1002,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <f>1/delta</f>
@@ -1026,7 +1018,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <f>1/gamma</f>
@@ -1041,7 +1033,7 @@
         <v>0.15</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,135 +1044,139 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.01</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4">
-        <f>35*10^5</f>
-        <v>3500000</v>
+        <v>94</v>
+      </c>
+      <c r="B9" s="12">
+        <f>76-38</f>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="D9" s="3">
+        <f>w*VSLY</f>
+        <v>10606294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>2.5</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.05</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.05</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.02</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.02</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.5</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,42 +1184,42 @@
         <v>50</v>
       </c>
       <c r="B18" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="8">
+        <f>0.7*2.38/1000/B13</f>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B19*0.9</f>
+        <v>7.4969999999999995E-2</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="9">
-        <f>0.7*2.38/1000/B14</f>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="9">
-        <f>B20*0.9</f>
-        <v>7.4969999999999995E-2</v>
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>1.5</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1231,145 +1227,145 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>279113</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23">
-        <v>279113</v>
+        <v>13.8</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <f>MAX(jurisdiction!A:A)</f>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B26">
-        <f>MAX(jurisdiction!A:A)</f>
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>0.25</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G23" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
+  <autoFilter ref="A1:G22" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1379,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4AC197-751B-D642-B32A-DB1D08A8DC07}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,24 +1390,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1428,7 +1424,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1445,7 +1441,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1462,7 +1458,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1485,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,11 +1492,11 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1514,13 +1510,16 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1533,15 +1532,17 @@
       <c r="D2">
         <v>100000</v>
       </c>
-      <c r="E2" s="13">
-        <f>100/365/5</f>
-        <v>5.4794520547945202E-2</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF(A2="","",IF(A2+1&lt;=settings!B1,A2+1,""))</f>
         <v>2</v>
@@ -1555,20 +1556,22 @@
       <c r="D3">
         <v>100000</v>
       </c>
-      <c r="E3" s="13">
-        <f>100/365/5</f>
-        <v>5.4794520547945202E-2</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1576,75 +1579,77 @@
       <c r="D4">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
-        <f>100/365/5</f>
-        <v>5.4794520547945202E-2</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(A5="","",IF(A5+1&lt;=settings!B4,A5+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(A6="","",IF(A6+1&lt;=settings!B5,A6+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(A7="","",IF(A7+1&lt;=settings!B6,A7+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(A8="","",IF(A8+1&lt;=settings!B7,A8+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(A9="","",IF(A9+1&lt;=settings!B8,A9+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(A10="","",IF(A10+1&lt;=settings!B9,A10+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(A11="","",IF(A11+1&lt;=settings!B10,A11+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(A12="","",IF(A12+1&lt;=settings!B11,A12+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(A13="","",IF(A13+1&lt;=settings!B12,A13+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(A14="","",IF(A14+1&lt;=settings!B13,A14+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF(A15="","",IF(A15+1&lt;=settings!B14,A15+1,""))</f>
         <v/>
@@ -1758,64 +1763,64 @@
         <f>IF(jurisdiction!B2="", "", jurisdiction!B2)</f>
         <v>NY</v>
       </c>
-      <c r="B2" s="7">
-        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B2" s="6">
+        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>2.375</v>
       </c>
-      <c r="C2" s="7">
-        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="C2" s="6">
+        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D2" s="7">
-        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="D2" s="6">
+        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P2" s="7" t="str">
-        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$F2*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="E2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P2" s="6" t="str">
+        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$G2*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G2*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -1824,64 +1829,64 @@
         <f>IF(jurisdiction!B3="", "", jurisdiction!B3)</f>
         <v>NJ</v>
       </c>
-      <c r="B3" s="7">
-        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B3" s="6">
+        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="7">
-        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="C3" s="6">
+        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>2.375</v>
       </c>
-      <c r="D3" s="7">
-        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="D3" s="6">
+        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$F3*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$G3*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G3*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -1890,64 +1895,64 @@
         <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
         <v>PA</v>
       </c>
-      <c r="B4" s="7">
-        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B4" s="6">
+        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="C4" s="7">
-        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="C4" s="6">
+        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="D4" s="7">
-        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="D4" s="6">
+        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v>2.1374999999999997</v>
       </c>
-      <c r="E4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P4" s="7" t="str">
-        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$F4*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$G4*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G4*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -1956,64 +1961,64 @@
         <f>IF(jurisdiction!B5="", "", jurisdiction!B5)</f>
         <v/>
       </c>
-      <c r="B5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P5" s="7" t="str">
-        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$F5*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P5" s="6" t="str">
+        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$G5*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G5*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2022,64 +2027,64 @@
         <f>IF(jurisdiction!B6="", "", jurisdiction!B6)</f>
         <v/>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P6" s="7" t="str">
-        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$F6*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P6" s="6" t="str">
+        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$G6*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G6*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2088,64 +2093,64 @@
         <f>IF(jurisdiction!B7="", "", jurisdiction!B7)</f>
         <v/>
       </c>
-      <c r="B7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="7" t="str">
-        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$F7*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P7" s="6" t="str">
+        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$G7*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G7*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2154,64 +2159,64 @@
         <f>IF(jurisdiction!B8="", "", jurisdiction!B8)</f>
         <v/>
       </c>
-      <c r="B8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P8" s="7" t="str">
-        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$F8*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$G8*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G8*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2220,64 +2225,64 @@
         <f>IF(jurisdiction!B9="", "", jurisdiction!B9)</f>
         <v/>
       </c>
-      <c r="B9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="7" t="str">
-        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$F9*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$G9*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G9*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2286,64 +2291,64 @@
         <f>IF(jurisdiction!B10="", "", jurisdiction!B10)</f>
         <v/>
       </c>
-      <c r="B10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="7" t="str">
-        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$F10*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P10" s="6" t="str">
+        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$G10*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G10*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2352,64 +2357,64 @@
         <f>IF(jurisdiction!B11="", "", jurisdiction!B11)</f>
         <v/>
       </c>
-      <c r="B11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="7" t="str">
-        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$F11*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$G11*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G11*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2418,64 +2423,64 @@
         <f>IF(jurisdiction!B12="", "", jurisdiction!B12)</f>
         <v/>
       </c>
-      <c r="B12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P12" s="7" t="str">
-        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$F12*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P12" s="6" t="str">
+        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$G12*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G12*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2484,64 +2489,64 @@
         <f>IF(jurisdiction!B13="", "", jurisdiction!B13)</f>
         <v/>
       </c>
-      <c r="B13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P13" s="7" t="str">
-        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$F13*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P13" s="6" t="str">
+        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$G13*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G13*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2550,64 +2555,64 @@
         <f>IF(jurisdiction!B14="", "", jurisdiction!B14)</f>
         <v/>
       </c>
-      <c r="B14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="7" t="str">
-        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$F14*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P14" s="6" t="str">
+        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$G14*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G14*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2616,64 +2621,64 @@
         <f>IF(jurisdiction!B15="", "", jurisdiction!B15)</f>
         <v/>
       </c>
-      <c r="B15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="7" t="str">
-        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$F15*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$G15*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G15*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2682,64 +2687,64 @@
         <f>IF(jurisdiction!B16="", "", jurisdiction!B16)</f>
         <v/>
       </c>
-      <c r="B16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P16" s="7" t="str">
-        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$F16*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P16" s="6" t="str">
+        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$G16*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G16*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2748,64 +2753,64 @@
         <f>IF(jurisdiction!B17="", "", jurisdiction!B17)</f>
         <v/>
       </c>
-      <c r="B17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P17" s="7" t="str">
-        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$F17*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="6" t="str">
+        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$G17*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G17*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2814,64 +2819,64 @@
         <f>IF(jurisdiction!B18="", "", jurisdiction!B18)</f>
         <v/>
       </c>
-      <c r="B18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P18" s="7" t="str">
-        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$F18*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="6" t="str">
+        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$G18*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G18*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2880,64 +2885,64 @@
         <f>IF(jurisdiction!B19="", "", jurisdiction!B19)</f>
         <v/>
       </c>
-      <c r="B19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="7" t="str">
-        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$F19*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P19" s="6" t="str">
+        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$G19*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G19*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -2946,64 +2951,64 @@
         <f>IF(jurisdiction!B20="", "", jurisdiction!B20)</f>
         <v/>
       </c>
-      <c r="B20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="7" t="str">
-        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$F20*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P20" s="6" t="str">
+        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$G20*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G20*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3012,64 +3017,64 @@
         <f>IF(jurisdiction!B21="", "", jurisdiction!B21)</f>
         <v/>
       </c>
-      <c r="B21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P21" s="7" t="str">
-        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$F21*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P21" s="6" t="str">
+        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$G21*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G21*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3078,64 +3083,64 @@
         <f>IF(jurisdiction!B22="", "", jurisdiction!B22)</f>
         <v/>
       </c>
-      <c r="B22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="7" t="str">
-        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$F22*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P22" s="6" t="str">
+        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$G22*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G22*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3144,64 +3149,64 @@
         <f>IF(jurisdiction!B23="", "", jurisdiction!B23)</f>
         <v/>
       </c>
-      <c r="B23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P23" s="7" t="str">
-        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$F23*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P23" s="6" t="str">
+        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$G23*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G23*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3210,64 +3215,64 @@
         <f>IF(jurisdiction!B24="", "", jurisdiction!B24)</f>
         <v/>
       </c>
-      <c r="B24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="7" t="str">
-        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$F24*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P24" s="6" t="str">
+        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$G24*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G24*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3276,64 +3281,64 @@
         <f>IF(jurisdiction!B25="", "", jurisdiction!B25)</f>
         <v/>
       </c>
-      <c r="B25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P25" s="7" t="str">
-        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$F25*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P25" s="6" t="str">
+        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$G25*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G25*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3342,64 +3347,64 @@
         <f>IF(jurisdiction!B26="", "", jurisdiction!B26)</f>
         <v/>
       </c>
-      <c r="B26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="7" t="str">
-        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$F26*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P26" s="6" t="str">
+        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$G26*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G26*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3408,64 +3413,64 @@
         <f>IF(jurisdiction!B27="", "", jurisdiction!B27)</f>
         <v/>
       </c>
-      <c r="B27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="7" t="str">
-        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$F27*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="6" t="str">
+        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$G27*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G27*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3474,64 +3479,64 @@
         <f>IF(jurisdiction!B28="", "", jurisdiction!B28)</f>
         <v/>
       </c>
-      <c r="B28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="7" t="str">
-        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$F28*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="6" t="str">
+        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$G28*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G28*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3540,64 +3545,64 @@
         <f>IF(jurisdiction!B29="", "", jurisdiction!B29)</f>
         <v/>
       </c>
-      <c r="B29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="7" t="str">
-        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$F29*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P29" s="6" t="str">
+        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$G29*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G29*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3606,64 +3611,64 @@
         <f>IF(jurisdiction!B30="", "", jurisdiction!B30)</f>
         <v/>
       </c>
-      <c r="B30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="7" t="str">
-        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$F30*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P30" s="6" t="str">
+        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$G30*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G30*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3672,64 +3677,64 @@
         <f>IF(jurisdiction!B31="", "", jurisdiction!B31)</f>
         <v/>
       </c>
-      <c r="B31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P31" s="7" t="str">
-        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$F31*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P31" s="6" t="str">
+        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$G31*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G31*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3738,64 +3743,64 @@
         <f>IF(jurisdiction!B32="", "", jurisdiction!B32)</f>
         <v/>
       </c>
-      <c r="B32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="7" t="str">
-        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$F32*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="6" t="str">
+        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$G32*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G32*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3804,64 +3809,64 @@
         <f>IF(jurisdiction!B33="", "", jurisdiction!B33)</f>
         <v/>
       </c>
-      <c r="B33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="7" t="str">
-        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$F33*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="6" t="str">
+        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$G33*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G33*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3870,64 +3875,64 @@
         <f>IF(jurisdiction!B34="", "", jurisdiction!B34)</f>
         <v/>
       </c>
-      <c r="B34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="7" t="str">
-        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$F34*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P34" s="6" t="str">
+        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$G34*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G34*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -3936,64 +3941,64 @@
         <f>IF(jurisdiction!B35="", "", jurisdiction!B35)</f>
         <v/>
       </c>
-      <c r="B35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="7" t="str">
-        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$F35*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P35" s="6" t="str">
+        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$G35*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G35*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4002,64 +4007,64 @@
         <f>IF(jurisdiction!B36="", "", jurisdiction!B36)</f>
         <v/>
       </c>
-      <c r="B36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="7" t="str">
-        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$F36*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P36" s="6" t="str">
+        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$G36*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G36*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4068,64 +4073,64 @@
         <f>IF(jurisdiction!B37="", "", jurisdiction!B37)</f>
         <v/>
       </c>
-      <c r="B37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="7" t="str">
-        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$F37*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P37" s="6" t="str">
+        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$G37*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G37*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4134,64 +4139,64 @@
         <f>IF(jurisdiction!B38="", "", jurisdiction!B38)</f>
         <v/>
       </c>
-      <c r="B38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="7" t="str">
-        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$F38*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P38" s="6" t="str">
+        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$G38*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G38*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4200,64 +4205,64 @@
         <f>IF(jurisdiction!B39="", "", jurisdiction!B39)</f>
         <v/>
       </c>
-      <c r="B39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="7" t="str">
-        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$F39*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P39" s="6" t="str">
+        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$G39*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G39*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4266,64 +4271,64 @@
         <f>IF(jurisdiction!B40="", "", jurisdiction!B40)</f>
         <v/>
       </c>
-      <c r="B40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P40" s="7" t="str">
-        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$F40*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P40" s="6" t="str">
+        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$G40*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G40*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
@@ -4332,870 +4337,870 @@
         <f>IF(jurisdiction!B41="", "", jurisdiction!B41)</f>
         <v/>
       </c>
-      <c r="B41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P41" s="7" t="str">
-        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$F41*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P41" s="6" t="str">
+        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$G41*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G41*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="7" t="str">
-        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$F42*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P42" s="6" t="str">
+        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$G42*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G42*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="7" t="str">
-        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$F43*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P43" s="6" t="str">
+        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$G43*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G43*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="7" t="str">
-        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$F44*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P44" s="6" t="str">
+        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$G44*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G44*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="7" t="str">
-        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$F45*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P45" s="6" t="str">
+        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$G45*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G45*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P46" s="7" t="str">
-        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$F46*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P46" s="6" t="str">
+        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$G46*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G46*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="7" t="str">
-        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$F47*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P47" s="6" t="str">
+        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$G47*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G47*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="7" t="str">
-        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$F48*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P48" s="6" t="str">
+        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$G48*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G48*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="7" t="str">
-        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$F49*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P49" s="6" t="str">
+        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$G49*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G49*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="7" t="str">
-        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$F50*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P50" s="6" t="str">
+        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$G50*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G50*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="7" t="str">
-        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$F51*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P51" s="6" t="str">
+        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$G51*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G51*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P52" s="7" t="str">
-        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$F52*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="6" t="str">
+        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$G52*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G52*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P53" s="7" t="str">
-        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$F53*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="6" t="str">
+        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$G53*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G53*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="C54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="D54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="E54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="F54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="G54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="H54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="I54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="J54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="K54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="L54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="M54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="N54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="O54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
-        <v/>
-      </c>
-      <c r="P54" s="7" t="str">
-        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$F54*parameters!$B$12*parameters!$B$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$B$12*(1-parameters!$B$13)), "")</f>
+      <c r="B54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="C54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="D54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="E54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="J54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="K54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="6" t="str">
+        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$G54*parameters!$B$11*parameters!$B$12/(settings!$B$2-1),jurisdiction!$G54*parameters!$B$11*(1-parameters!$B$12)), "")</f>
         <v/>
       </c>
     </row>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA535B-B973-3D4D-B071-70D75ED305EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EFDCA-682A-9A4B-8610-70A5E4491737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="228" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2067,15 +2067,15 @@
       </c>
       <c r="B4" s="4">
         <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>1E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="C4" s="4">
         <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>1E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="D4" s="4">
         <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>9.8000000000000004E-2</v>
+        <v>0.2205</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EFDCA-682A-9A4B-8610-70A5E4491737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB4ACA-E659-0E43-B9A9-2243DFE82585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="3" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="5" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2098764E-6B11-7B41-A913-021A59470DB7}</author>
+    <author>tc={28494AA6-589E-C84A-8DCB-48BB2C8FF28E}</author>
     <author>tc={0A493894-0BE2-3646-9CA8-F6EB43E39E12}</author>
     <author>tc={E3294B68-B3C5-4A43-B614-3E4CB6542780}</author>
     <author>tc={3844B481-F1F1-B448-A37D-14DB0AD39FFD}</author>
@@ -72,7 +73,16 @@
     For sensitivity analysis</t>
       </text>
     </comment>
-    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{28494AA6-589E-C84A-8DCB-48BB2C8FF28E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use a VSL directly for death.
+~ 10 mi. Derek to look into this.</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +91,7 @@
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="2" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+    <comment ref="C19" authorId="3" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +101,7 @@
     This is the maximum prevalence the hospital system can possibly take.</t>
       </text>
     </comment>
-    <comment ref="C20" authorId="3" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+    <comment ref="C20" authorId="4" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -905,6 +915,10 @@
   <threadedComment ref="D1" dT="2023-10-12T13:35:46.96" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{2098764E-6B11-7B41-A913-021A59470DB7}">
     <text>For sensitivity analysis</text>
   </threadedComment>
+  <threadedComment ref="C6" dT="2023-10-12T17:31:47.23" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{28494AA6-589E-C84A-8DCB-48BB2C8FF28E}">
+    <text>Use a VSL directly for death.
+~ 10 mi. Derek to look into this.</text>
+  </threadedComment>
   <threadedComment ref="E10" dT="2023-10-12T12:09:36.52" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
     <text>This paper clarifies the difference between Willingess to pay to avoid risk and willingness to accept new risk, and argues that WTA is more appropriate:
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</text>
@@ -979,11 +993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1184,7 @@
       <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>279113</v>
       </c>
       <c r="E10" t="s">
@@ -1184,7 +1198,7 @@
       <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.25</v>
       </c>
       <c r="D11" t="s">
@@ -1204,7 +1218,7 @@
       <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>70000</v>
       </c>
       <c r="E12" t="s">
@@ -1507,7 +1521,7 @@
         <v>64</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>71</v>
@@ -1665,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2067,15 +2081,15 @@
       </c>
       <c r="B4" s="4">
         <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>2.2500000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C4" s="4">
         <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>2.2500000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D4" s="4">
         <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>0.2205</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
@@ -5383,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CF3C4-9881-3046-921C-4AF233771A62}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB4ACA-E659-0E43-B9A9-2243DFE82585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0C444-842C-5C44-9208-C25AFEF2967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="5" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19680" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="coordination" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$F$37</definedName>
     <definedName name="c_">parameters!$C$6</definedName>
-    <definedName name="C_surv">parameters!$C$10</definedName>
+    <definedName name="C_surv">parameters!$C$11</definedName>
     <definedName name="days_to_adjust_NPI">parameters!#REF!</definedName>
     <definedName name="delta">parameters!$C$3</definedName>
     <definedName name="gamma">parameters!$C$4</definedName>
@@ -32,7 +32,7 @@
     <definedName name="r_">parameters!$C$8</definedName>
     <definedName name="sigma">parameters!$C$2</definedName>
     <definedName name="tau">parameters!$C$5</definedName>
-    <definedName name="VSLY">parameters!$C$23</definedName>
+    <definedName name="VSLY">parameters!$C$24</definedName>
     <definedName name="w">parameters!$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +65,7 @@
     <author>tc={3844B481-F1F1-B448-A37D-14DB0AD39FFD}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2098764E-6B11-7B41-A913-021A59470DB7}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2098764E-6B11-7B41-A913-021A59470DB7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +82,7 @@
 ~ 10 mi. Derek to look into this.</t>
       </text>
     </comment>
-    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +91,7 @@
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="3" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+    <comment ref="C20" authorId="3" shapeId="0" xr:uid="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
     This is the maximum prevalence the hospital system can possibly take.</t>
       </text>
     </comment>
-    <comment ref="C20" authorId="4" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+    <comment ref="C21" authorId="4" shapeId="0" xr:uid="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
     <author>tc={7A40F35E-5403-7440-89F4-BBC6642F205E}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>setting</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>Number of simulation patches. Shold we do 6?</t>
+  </si>
+  <si>
+    <t>int_rate</t>
+  </si>
+  <si>
+    <t>Rate of new exposures migrating into the community.</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>S0</t>
   </si>
 </sst>
 </file>
@@ -912,14 +924,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-10-12T13:35:46.96" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{2098764E-6B11-7B41-A913-021A59470DB7}">
+  <threadedComment ref="E1" dT="2023-10-12T13:35:46.96" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{2098764E-6B11-7B41-A913-021A59470DB7}">
     <text>For sensitivity analysis</text>
   </threadedComment>
   <threadedComment ref="C6" dT="2023-10-12T17:31:47.23" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{28494AA6-589E-C84A-8DCB-48BB2C8FF28E}">
     <text>Use a VSL directly for death.
 ~ 10 mi. Derek to look into this.</text>
   </threadedComment>
-  <threadedComment ref="E10" dT="2023-10-12T12:09:36.52" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
+  <threadedComment ref="D11" dT="2023-10-12T12:09:36.52" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{0A493894-0BE2-3646-9CA8-F6EB43E39E12}">
     <text>This paper clarifies the difference between Willingess to pay to avoid risk and willingness to accept new risk, and argues that WTA is more appropriate:
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7499700/</text>
     <extLst>
@@ -929,13 +941,13 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="C19" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="C20" dT="2023-07-31T14:58:28.36" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>60% baseline utilization * 2.38 hospital beds per 1000 people</text>
   </threadedComment>
-  <threadedComment ref="C19" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
+  <threadedComment ref="C20" dT="2023-07-31T14:59:08.02" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{B1BA4410-D80C-2A4C-8884-100A8E7F584F}" parentId="{E3294B68-B3C5-4A43-B614-3E4CB6542780}">
     <text>This is the maximum prevalence the hospital system can possibly take.</text>
   </threadedComment>
-  <threadedComment ref="C20" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
+  <threadedComment ref="C21" dT="2023-07-31T15:00:08.56" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{3844B481-F1F1-B448-A37D-14DB0AD39FFD}">
     <text>This is the prevalence at which the IFR is at the midpoint between normal and a worst-case scenario</text>
   </threadedComment>
 </ThreadedComments>
@@ -943,7 +955,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2023-10-12T11:46:57.75" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
+  <threadedComment ref="G1" dT="2023-10-12T11:46:57.75" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
     <text>To be computed in pre-processing</text>
   </threadedComment>
 </ThreadedComments>
@@ -991,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,8 +1017,8 @@
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.33203125" customWidth="1"/>
+    <col min="4" max="4" width="124.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,10 +1033,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>13</v>
@@ -1041,10 +1053,10 @@
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>98</v>
       </c>
@@ -1060,10 +1072,10 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
       </c>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>98</v>
       </c>
@@ -1079,10 +1091,10 @@
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
+      <c r="E4" s="4"/>
       <c r="F4" t="s">
         <v>98</v>
       </c>
@@ -1097,11 +1109,11 @@
       <c r="C5" s="2">
         <v>0.01</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1118,10 +1130,10 @@
         <f>76-38</f>
         <v>38</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1131,13 +1143,13 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
         <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>99</v>
@@ -1153,7 +1165,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
@@ -1170,7 +1182,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
       <c r="F9" t="s">
@@ -1179,16 +1191,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1">
-        <v>279113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,19 +1208,13 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.25</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>279113</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,33 +1222,33 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="1">
-        <v>70000</v>
+        <v>76</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,14 +1256,19 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,27 +1276,28 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
+      <c r="D16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1293,17 +1305,13 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,14 +1319,17 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,65 +1337,60 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6">
-        <f>0.7*2.38/1000/C13</f>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6">
-        <f>C19*0.9</f>
-        <v>7.4969999999999995E-2</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
+        <f>0.7*2.38/1000/C14</f>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21">
-        <v>1.5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C21" s="6">
+        <f>C20*0.9</f>
+        <v>7.4969999999999995E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1392,16 +1398,19 @@
         <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.15</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1409,13 +1418,16 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,19 +1435,13 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>113</v>
+        <v>1000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,13 +1449,19 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,13 +1469,13 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1471,31 +1483,30 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1503,28 +1514,29 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f>MAX(jurisdiction!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1532,14 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,19 +1558,34 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.5</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-      <sortCondition ref="A1:A36"/>
+  <autoFilter ref="A1:F37" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,22 +1703,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="228" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="228" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1706,13 +1732,19 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1723,16 +1755,24 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="1">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="E2">
+        <f>D2-F2</f>
+        <v>999990</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF(A2="","",IF(A2+1&lt;=settings!B1,A2+1,""))</f>
         <v>2</v>
@@ -1744,16 +1784,24 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="1">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <f>D3-F3</f>
+        <v>1000000</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1764,76 +1812,84 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="1">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="E4">
+        <f>D4-F4</f>
+        <v>1000000</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(A5="","",IF(A5+1&lt;=settings!B4,A5+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(A6="","",IF(A6+1&lt;=settings!B5,A6+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(A7="","",IF(A7+1&lt;=settings!B6,A7+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(A8="","",IF(A8+1&lt;=settings!B7,A8+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(A9="","",IF(A9+1&lt;=settings!B8,A9+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(A10="","",IF(A10+1&lt;=settings!B9,A10+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(A11="","",IF(A11+1&lt;=settings!B10,A11+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(A12="","",IF(A12+1&lt;=settings!B11,A12+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(A13="","",IF(A13+1&lt;=settings!B12,A13+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(A14="","",IF(A14+1&lt;=settings!B13,A14+1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF(A15="","",IF(A15+1&lt;=settings!B14,A15+1,""))</f>
         <v/>
@@ -1948,63 +2004,63 @@
         <v>NY</v>
       </c>
       <c r="B2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>0.245</v>
       </c>
       <c r="C2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$F2*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F2*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2014,63 +2070,63 @@
         <v>NJ</v>
       </c>
       <c r="B3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>2.2500000000000003E-3</v>
+        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>0.2205</v>
+        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>2.2500000000000003E-3</v>
+        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$F3*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F3*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2080,63 +2136,63 @@
         <v>PA</v>
       </c>
       <c r="B4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>1E-3</v>
+        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>1E-3</v>
+        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
-        <v>9.8000000000000004E-2</v>
+        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$F4*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F4*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2146,63 +2202,63 @@
         <v/>
       </c>
       <c r="B5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$F5*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F5*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2212,63 +2268,63 @@
         <v/>
       </c>
       <c r="B6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$F6*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F6*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2278,63 +2334,63 @@
         <v/>
       </c>
       <c r="B7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$F7*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F7*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2344,63 +2400,63 @@
         <v/>
       </c>
       <c r="B8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$F8*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F8*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2410,63 +2466,63 @@
         <v/>
       </c>
       <c r="B9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$F9*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F9*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2476,63 +2532,63 @@
         <v/>
       </c>
       <c r="B10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$F10*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F10*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2542,63 +2598,63 @@
         <v/>
       </c>
       <c r="B11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$F11*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F11*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2608,63 +2664,63 @@
         <v/>
       </c>
       <c r="B12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$F12*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F12*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2674,63 +2730,63 @@
         <v/>
       </c>
       <c r="B13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$F13*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F13*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2740,63 +2796,63 @@
         <v/>
       </c>
       <c r="B14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$F14*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F14*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2806,63 +2862,63 @@
         <v/>
       </c>
       <c r="B15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$F15*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F15*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2872,63 +2928,63 @@
         <v/>
       </c>
       <c r="B16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$F16*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F16*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -2938,63 +2994,63 @@
         <v/>
       </c>
       <c r="B17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$F17*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F17*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3004,63 +3060,63 @@
         <v/>
       </c>
       <c r="B18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$F18*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F18*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3070,63 +3126,63 @@
         <v/>
       </c>
       <c r="B19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$F19*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F19*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3136,63 +3192,63 @@
         <v/>
       </c>
       <c r="B20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$F20*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F20*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3202,63 +3258,63 @@
         <v/>
       </c>
       <c r="B21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$F21*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F21*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3268,63 +3324,63 @@
         <v/>
       </c>
       <c r="B22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$F22*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F22*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3334,63 +3390,63 @@
         <v/>
       </c>
       <c r="B23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$F23*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F23*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3400,63 +3456,63 @@
         <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$F24*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F24*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3466,63 +3522,63 @@
         <v/>
       </c>
       <c r="B25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$F25*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F25*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3532,63 +3588,63 @@
         <v/>
       </c>
       <c r="B26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$F26*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F26*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3598,63 +3654,63 @@
         <v/>
       </c>
       <c r="B27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$F27*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F27*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3664,63 +3720,63 @@
         <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$F28*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F28*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3730,63 +3786,63 @@
         <v/>
       </c>
       <c r="B29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$F29*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F29*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3796,63 +3852,63 @@
         <v/>
       </c>
       <c r="B30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$F30*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F30*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3862,63 +3918,63 @@
         <v/>
       </c>
       <c r="B31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$F31*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F31*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3928,63 +3984,63 @@
         <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$F32*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F32*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -3994,63 +4050,63 @@
         <v/>
       </c>
       <c r="B33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$F33*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F33*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4060,63 +4116,63 @@
         <v/>
       </c>
       <c r="B34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$F34*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F34*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4126,63 +4182,63 @@
         <v/>
       </c>
       <c r="B35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$F35*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F35*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4192,63 +4248,63 @@
         <v/>
       </c>
       <c r="B36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$F36*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F36*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4258,63 +4314,63 @@
         <v/>
       </c>
       <c r="B37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$F37*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F37*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4324,63 +4380,63 @@
         <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$F38*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F38*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4390,63 +4446,63 @@
         <v/>
       </c>
       <c r="B39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$F39*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F39*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4456,63 +4512,63 @@
         <v/>
       </c>
       <c r="B40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$F40*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F40*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4522,869 +4578,869 @@
         <v/>
       </c>
       <c r="B41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$F41*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F41*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$F42*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F42*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$F43*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F43*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$F44*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F44*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$F45*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F45*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$F46*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F46*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$F47*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F47*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$F48*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F48*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I49)&lt;&gt;COLUMN(I49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J49)&lt;&gt;COLUMN(J49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K49)&lt;&gt;COLUMN(K49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L49)&lt;&gt;COLUMN(L49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M49)&lt;&gt;COLUMN(M49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N49)&lt;&gt;COLUMN(N49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O49)&lt;&gt;COLUMN(O49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$F49*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F49*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P49)&lt;&gt;COLUMN(P49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B50)&lt;&gt;COLUMN(B50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C50)&lt;&gt;COLUMN(C50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D50)&lt;&gt;COLUMN(D50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E50)&lt;&gt;COLUMN(E50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F50)&lt;&gt;COLUMN(F50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G50)&lt;&gt;COLUMN(G50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H50)&lt;&gt;COLUMN(H50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I50)&lt;&gt;COLUMN(I50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J50)&lt;&gt;COLUMN(J50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K50)&lt;&gt;COLUMN(K50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L50)&lt;&gt;COLUMN(L50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M50)&lt;&gt;COLUMN(M50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N50)&lt;&gt;COLUMN(N50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O50)&lt;&gt;COLUMN(O50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P50" s="4" t="str">
-        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$F50*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F50*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A50&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P50)&lt;&gt;COLUMN(P50),jurisdiction!$H50*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H50*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B51)&lt;&gt;COLUMN(B51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C51)&lt;&gt;COLUMN(C51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D51)&lt;&gt;COLUMN(D51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E51)&lt;&gt;COLUMN(E51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F51)&lt;&gt;COLUMN(F51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G51)&lt;&gt;COLUMN(G51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H51)&lt;&gt;COLUMN(H51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I51)&lt;&gt;COLUMN(I51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J51)&lt;&gt;COLUMN(J51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K51)&lt;&gt;COLUMN(K51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L51)&lt;&gt;COLUMN(L51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M51)&lt;&gt;COLUMN(M51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N51)&lt;&gt;COLUMN(N51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O51)&lt;&gt;COLUMN(O51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P51" s="4" t="str">
-        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$F51*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F51*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A51&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P51)&lt;&gt;COLUMN(P51),jurisdiction!$H51*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H51*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B52)&lt;&gt;COLUMN(B52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C52)&lt;&gt;COLUMN(C52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D52)&lt;&gt;COLUMN(D52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E52)&lt;&gt;COLUMN(E52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F52)&lt;&gt;COLUMN(F52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G52)&lt;&gt;COLUMN(G52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H52)&lt;&gt;COLUMN(H52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I52)&lt;&gt;COLUMN(I52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J52)&lt;&gt;COLUMN(J52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K52)&lt;&gt;COLUMN(K52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L52)&lt;&gt;COLUMN(L52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M52)&lt;&gt;COLUMN(M52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N52)&lt;&gt;COLUMN(N52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O52)&lt;&gt;COLUMN(O52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P52" s="4" t="str">
-        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$F52*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F52*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A52&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P52)&lt;&gt;COLUMN(P52),jurisdiction!$H52*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H52*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B53)&lt;&gt;COLUMN(B53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C53)&lt;&gt;COLUMN(C53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D53)&lt;&gt;COLUMN(D53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E53)&lt;&gt;COLUMN(E53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F53)&lt;&gt;COLUMN(F53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G53)&lt;&gt;COLUMN(G53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H53)&lt;&gt;COLUMN(H53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I53)&lt;&gt;COLUMN(I53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J53)&lt;&gt;COLUMN(J53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K53)&lt;&gt;COLUMN(K53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L53)&lt;&gt;COLUMN(L53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M53)&lt;&gt;COLUMN(M53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N53)&lt;&gt;COLUMN(N53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O53)&lt;&gt;COLUMN(O53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P53" s="4" t="str">
-        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$F53*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F53*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A53&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P53)&lt;&gt;COLUMN(P53),jurisdiction!$H53*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H53*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B54)&lt;&gt;COLUMN(B54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C54)&lt;&gt;COLUMN(C54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D54)&lt;&gt;COLUMN(D54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E54)&lt;&gt;COLUMN(E54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F54)&lt;&gt;COLUMN(F54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G54)&lt;&gt;COLUMN(G54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H54)&lt;&gt;COLUMN(H54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J54)&lt;&gt;COLUMN(J54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K54)&lt;&gt;COLUMN(K54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L54)&lt;&gt;COLUMN(L54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M54)&lt;&gt;COLUMN(M54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N54)&lt;&gt;COLUMN(N54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O54)&lt;&gt;COLUMN(O54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P54" s="4" t="str">
-        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$F54*parameters!$C$11*parameters!$C$13/(settings!$B$2-1),jurisdiction!$F54*parameters!$C$11*(1-parameters!$C$13)), "")</f>
+        <f>IF(AND($A54&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P54)&lt;&gt;COLUMN(P54),jurisdiction!$H54*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H54*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -5397,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CF3C4-9881-3046-921C-4AF233771A62}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5475,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E2),ROW(E2)))="", "",INDIRECT(ADDRESS(COLUMN(E2),ROW(E2))))</f>
@@ -5534,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(INDIRECT(ADDRESS(COLUMN(E3),ROW(E3)))="", "",INDIRECT(ADDRESS(COLUMN(E3),ROW(E3))))</f>
@@ -5587,10 +5643,10 @@
         <v>PA</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/data/metapopulation-inputs-01.xlsx
+++ b/data/metapopulation-inputs-01.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0C444-842C-5C44-9208-C25AFEF2967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443EBB2D-6B83-0647-8F94-08AB6EECBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19680" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="4" r:id="rId2"/>
-    <sheet name="healthcosts" sheetId="7" r:id="rId3"/>
-    <sheet name="jurisdiction" sheetId="2" r:id="rId4"/>
-    <sheet name="beta_raw" sheetId="6" r:id="rId5"/>
-    <sheet name="coordination" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="healthcosts" sheetId="7" r:id="rId4"/>
+    <sheet name="jurisdiction" sheetId="2" r:id="rId5"/>
+    <sheet name="beta_raw" sheetId="6" r:id="rId6"/>
+    <sheet name="coordination" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!$A$1:$F$37</definedName>
@@ -119,7 +120,7 @@
     <author>tc={7A40F35E-5403-7440-89F4-BBC6642F205E}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>setting</t>
   </si>
@@ -195,12 +196,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -243,9 +238,6 @@
     <t>C_surv</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
@@ -471,12 +463,6 @@
     <t>See Reopening California paper</t>
   </si>
   <si>
-    <t>Baseline assumption for COVID-19?</t>
-  </si>
-  <si>
-    <t>assumed, not sure we want this.</t>
-  </si>
-  <si>
     <t>not used</t>
   </si>
   <si>
@@ -532,6 +518,51 @@
   </si>
   <si>
     <t>S0</t>
+  </si>
+  <si>
+    <t>Disease progression</t>
+  </si>
+  <si>
+    <t>coordination_mode</t>
+  </si>
+  <si>
+    <t>npi.coordination.block</t>
+  </si>
+  <si>
+    <t>0 = no coordination, 1 = full coordination, 2 = coordination by specified block, 3 = coordination uses the coordination input matrix, which can be used to set arbitrary coordination matrices</t>
+  </si>
+  <si>
+    <t>p_i_fraction_of_mobile_people</t>
+  </si>
+  <si>
+    <t>Sarah thought about this.</t>
+  </si>
+  <si>
+    <t>not used as of now.</t>
+  </si>
+  <si>
+    <t>From CDC scenarios</t>
+  </si>
+  <si>
+    <t>Maybe set at zero since we have a larger number of jurisdictions.</t>
+  </si>
+  <si>
+    <t>Sarah to justify</t>
+  </si>
+  <si>
+    <t>assumed</t>
+  </si>
+  <si>
+    <t>Didn't Sarah look at this?</t>
+  </si>
+  <si>
+    <t>Look at data that estimated % of people in hospitals during covid. Then, look at the maximum % of people in hospitals with covid. That is our 0.7"</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Death rate</t>
   </si>
 </sst>
 </file>
@@ -955,7 +986,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2023-10-12T11:46:57.75" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
+  <threadedComment ref="H1" dT="2023-10-12T11:46:57.75" personId="{3AABDFAA-7D8C-674E-BCF6-F68A3F52C914}" id="{7A40F35E-5403-7440-89F4-BBC6642F205E}">
     <text>To be computed in pre-processing</text>
   </threadedComment>
 </ThreadedComments>
@@ -993,7 +1024,7 @@
       </c>
       <c r="B2">
         <f>MAX(jurisdiction!A:A)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1003,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,562 +1055,594 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>0.01</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="10">
         <f>76-38</f>
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>279113</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3">
         <v>0.25</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
         <v>70000</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5">
         <v>0.02</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
         <f>0.7*2.38/1000/C14</f>
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6"/>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6">
         <f>C20*0.9</f>
         <v>7.4969999999999995E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>1.5</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0.15</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>1000</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31">
         <f>MAX(jurisdiction!A:A)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1594,6 +1657,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF501A-9FC2-DA49-8AF6-EB2F0E0BA280}">
+  <dimension ref="C3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <f>C5+0.01</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:C15" si="0">C6+0.01</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4AC197-751B-D642-B32A-DB1D08A8DC07}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1612,24 +1774,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>6.0000000000000001E-3</v>
@@ -1646,7 +1808,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0.13300000000000001</v>
@@ -1663,7 +1825,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.65500000000000003</v>
@@ -1680,7 +1842,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <f>0.219</f>
@@ -1701,24 +1863,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="228" workbookViewId="0"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1726,197 +1893,746 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("J",A2)</f>
+        <v>J1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>1000000</f>
         <v>1000000</v>
       </c>
-      <c r="E2">
-        <f>D2-F2</f>
+      <c r="F2">
+        <f>E2-G2</f>
         <v>999990</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF(A2="","",IF(A2+1&lt;=settings!B1,A2+1,""))</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B21" si="0">_xlfn.CONCAT("J",A3)</f>
+        <v>J2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>1000000</f>
         <v>1000000</v>
       </c>
-      <c r="E3">
-        <f>D3-F3</f>
+      <c r="F3">
+        <f>E3-G3</f>
         <v>1000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>1000000</f>
         <v>1000000</v>
       </c>
-      <c r="E4">
-        <f>D4-F4</f>
+      <c r="F4">
+        <f>E4-G4</f>
         <v>1000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f>IF(A5="","",IF(A5+1&lt;=settings!B4,A5+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>IF(A6="","",IF(A6+1&lt;=settings!B5,A6+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f>IF(A7="","",IF(A7+1&lt;=settings!B6,A7+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>IF(A8="","",IF(A8+1&lt;=settings!B7,A8+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f>IF(A9="","",IF(A9+1&lt;=settings!B8,A9+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>IF(A10="","",IF(A10+1&lt;=settings!B9,A10+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f>IF(A11="","",IF(A11+1&lt;=settings!B10,A11+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>IF(A12="","",IF(A12+1&lt;=settings!B11,A12+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>IF(A13="","",IF(A13+1&lt;=settings!B12,A13+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>IF(A14="","",IF(A14+1&lt;=settings!B13,A14+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f>IF(A15="","",IF(A15+1&lt;=settings!B14,A15+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>IF(A16="","",IF(A16+1&lt;=settings!B15,A16+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>IF(A17="","",IF(A17+1&lt;=settings!B16,A17+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f>IF(A18="","",IF(A18+1&lt;=settings!B17,A18+1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>IF(A19="","",IF(A19+1&lt;=settings!B18,A19+1,""))</f>
-        <v/>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E21" si="1">1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F21" si="2">E5-G5</f>
+        <v>1000000</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ref="A6:A21" si="3">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>J11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>J12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>J13</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>J14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>J15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>J16</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>J17</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>J18</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>J19</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>J20</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1925,2122 +2641,2525 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>
-        <v>NY</v>
+        <f t="array" ref="B1:U1">TRANSPOSE(A2:A21)</f>
+        <v>J1</v>
       </c>
       <c r="C1" t="str">
-        <v>NJ</v>
+        <v>J2</v>
       </c>
       <c r="D1" t="str">
-        <v>PA</v>
+        <v>J3</v>
       </c>
       <c r="E1" t="str">
-        <v/>
+        <v>J4</v>
       </c>
       <c r="F1" t="str">
-        <v/>
+        <v>J5</v>
       </c>
       <c r="G1" t="str">
-        <v/>
+        <v>J6</v>
       </c>
       <c r="H1" t="str">
-        <v/>
+        <v>J7</v>
       </c>
       <c r="I1" t="str">
-        <v/>
+        <v>J8</v>
       </c>
       <c r="J1" t="str">
-        <v/>
+        <v>J9</v>
       </c>
       <c r="K1" t="str">
-        <v/>
+        <v>J10</v>
       </c>
       <c r="L1" t="str">
-        <v/>
+        <v>J11</v>
       </c>
       <c r="M1" t="str">
-        <v/>
+        <v>J12</v>
       </c>
       <c r="N1" t="str">
-        <v/>
+        <v>J13</v>
       </c>
       <c r="O1" t="str">
-        <v/>
+        <v>J14</v>
       </c>
       <c r="P1" t="str">
-        <v/>
+        <v>J15</v>
       </c>
       <c r="Q1" t="str">
-        <v/>
+        <v>J16</v>
       </c>
       <c r="R1" t="str">
-        <v/>
+        <v>J17</v>
       </c>
       <c r="S1" t="str">
-        <v/>
+        <v>J18</v>
       </c>
       <c r="T1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J19</v>
+      </c>
+      <c r="U1" t="str">
+        <v>J20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(jurisdiction!B2="", "", jurisdiction!B2)</f>
-        <v>NY</v>
+        <v>J1</v>
       </c>
       <c r="B2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>0.245</v>
       </c>
       <c r="C2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
+        <f>IF(AND($A2&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C2)&lt;&gt;COLUMN(C2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="D2" s="4">
-        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P2" s="4" t="str">
-        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$H2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(AND($A2&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D2)&lt;&gt;COLUMN(D2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E2)&lt;&gt;COLUMN(E2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F2)&lt;&gt;COLUMN(F2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G2)&lt;&gt;COLUMN(G2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H2)&lt;&gt;COLUMN(H2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I2)&lt;&gt;COLUMN(I2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J2)&lt;&gt;COLUMN(J2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K2)&lt;&gt;COLUMN(K2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L2)&lt;&gt;COLUMN(L2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M2)&lt;&gt;COLUMN(M2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N2)&lt;&gt;COLUMN(N2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O2)&lt;&gt;COLUMN(O2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P2)&lt;&gt;COLUMN(P2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q2)&lt;&gt;COLUMN(Q2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R2)&lt;&gt;COLUMN(R2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S2)&lt;&gt;COLUMN(S2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T2)&lt;&gt;COLUMN(T2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U2" s="4">
+        <f>IF(AND($A2&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U2)&lt;&gt;COLUMN(U2),jurisdiction!$I2*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I2*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(jurisdiction!B3="", "", jurisdiction!B3)</f>
-        <v>NJ</v>
+        <v>J2</v>
       </c>
       <c r="B3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
+        <f>IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A3&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C3)&lt;&gt;COLUMN(C3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>0.245</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$H3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(AND($A3&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D3)&lt;&gt;COLUMN(D3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E3)&lt;&gt;COLUMN(E3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F3)&lt;&gt;COLUMN(F3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G3)&lt;&gt;COLUMN(G3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H3)&lt;&gt;COLUMN(H3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I3)&lt;&gt;COLUMN(I3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J3)&lt;&gt;COLUMN(J3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K3)&lt;&gt;COLUMN(K3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L3)&lt;&gt;COLUMN(L3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M3)&lt;&gt;COLUMN(M3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N3)&lt;&gt;COLUMN(N3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O3)&lt;&gt;COLUMN(O3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P3)&lt;&gt;COLUMN(P3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q3)&lt;&gt;COLUMN(Q3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R3)&lt;&gt;COLUMN(R3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S3)&lt;&gt;COLUMN(S3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T3)&lt;&gt;COLUMN(T3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U3" s="4">
+        <f>IF(AND($A3&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U3)&lt;&gt;COLUMN(U3),jurisdiction!$I3*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I3*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
-        <v>PA</v>
+        <v>J3</v>
       </c>
       <c r="B4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
+        <f>IF(AND($A4&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B4)&lt;&gt;COLUMN(B4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v>2.5000000000000001E-3</v>
+        <f>IF(AND($A4&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C4)&lt;&gt;COLUMN(C4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A4&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D4)&lt;&gt;COLUMN(D4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v>0.245</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$H4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E4)&lt;&gt;COLUMN(E4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F4)&lt;&gt;COLUMN(F4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G4)&lt;&gt;COLUMN(G4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H4)&lt;&gt;COLUMN(H4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I4)&lt;&gt;COLUMN(I4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J4)&lt;&gt;COLUMN(J4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K4)&lt;&gt;COLUMN(K4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L4)&lt;&gt;COLUMN(L4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M4)&lt;&gt;COLUMN(M4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N4)&lt;&gt;COLUMN(N4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O4)&lt;&gt;COLUMN(O4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P4)&lt;&gt;COLUMN(P4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q4)&lt;&gt;COLUMN(Q4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R4)&lt;&gt;COLUMN(R4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S4)&lt;&gt;COLUMN(S4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T4)&lt;&gt;COLUMN(T4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U4" s="4">
+        <f>IF(AND($A4&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U4)&lt;&gt;COLUMN(U4),jurisdiction!$I4*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I4*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF(jurisdiction!B5="", "", jurisdiction!B5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P5" s="4" t="str">
-        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$H5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B5)&lt;&gt;COLUMN(B5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C5)&lt;&gt;COLUMN(C5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D5)&lt;&gt;COLUMN(D5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E5)&lt;&gt;COLUMN(E5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="F5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F5)&lt;&gt;COLUMN(F5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G5)&lt;&gt;COLUMN(G5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H5)&lt;&gt;COLUMN(H5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I5)&lt;&gt;COLUMN(I5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J5)&lt;&gt;COLUMN(J5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K5)&lt;&gt;COLUMN(K5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L5)&lt;&gt;COLUMN(L5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M5)&lt;&gt;COLUMN(M5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N5)&lt;&gt;COLUMN(N5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O5)&lt;&gt;COLUMN(O5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P5)&lt;&gt;COLUMN(P5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q5)&lt;&gt;COLUMN(Q5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R5)&lt;&gt;COLUMN(R5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S5)&lt;&gt;COLUMN(S5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T5)&lt;&gt;COLUMN(T5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U5" s="4">
+        <f>IF(AND($A5&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U5)&lt;&gt;COLUMN(U5),jurisdiction!$I5*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I5*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(jurisdiction!B6="", "", jurisdiction!B6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$H6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J5</v>
+      </c>
+      <c r="B6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B6)&lt;&gt;COLUMN(B6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C6)&lt;&gt;COLUMN(C6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D6)&lt;&gt;COLUMN(D6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E6)&lt;&gt;COLUMN(E6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F6)&lt;&gt;COLUMN(F6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="G6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G6)&lt;&gt;COLUMN(G6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H6)&lt;&gt;COLUMN(H6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I6)&lt;&gt;COLUMN(I6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J6)&lt;&gt;COLUMN(J6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K6)&lt;&gt;COLUMN(K6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L6)&lt;&gt;COLUMN(L6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M6)&lt;&gt;COLUMN(M6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N6)&lt;&gt;COLUMN(N6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O6)&lt;&gt;COLUMN(O6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P6)&lt;&gt;COLUMN(P6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q6)&lt;&gt;COLUMN(Q6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R6)&lt;&gt;COLUMN(R6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S6)&lt;&gt;COLUMN(S6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T6)&lt;&gt;COLUMN(T6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U6" s="4">
+        <f>IF(AND($A6&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U6)&lt;&gt;COLUMN(U6),jurisdiction!$I6*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I6*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(jurisdiction!B7="", "", jurisdiction!B7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$H7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B7)&lt;&gt;COLUMN(B7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C7)&lt;&gt;COLUMN(C7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D7)&lt;&gt;COLUMN(D7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E7)&lt;&gt;COLUMN(E7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F7)&lt;&gt;COLUMN(F7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G7)&lt;&gt;COLUMN(G7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="H7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H7)&lt;&gt;COLUMN(H7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I7)&lt;&gt;COLUMN(I7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J7)&lt;&gt;COLUMN(J7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K7)&lt;&gt;COLUMN(K7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L7)&lt;&gt;COLUMN(L7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M7)&lt;&gt;COLUMN(M7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N7)&lt;&gt;COLUMN(N7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O7)&lt;&gt;COLUMN(O7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P7)&lt;&gt;COLUMN(P7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q7)&lt;&gt;COLUMN(Q7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R7)&lt;&gt;COLUMN(R7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S7)&lt;&gt;COLUMN(S7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T7)&lt;&gt;COLUMN(T7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U7" s="4">
+        <f>IF(AND($A7&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U7)&lt;&gt;COLUMN(U7),jurisdiction!$I7*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I7*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(jurisdiction!B8="", "", jurisdiction!B8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$H8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J7</v>
+      </c>
+      <c r="B8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B8)&lt;&gt;COLUMN(B8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C8)&lt;&gt;COLUMN(C8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D8)&lt;&gt;COLUMN(D8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E8)&lt;&gt;COLUMN(E8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F8)&lt;&gt;COLUMN(F8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G8)&lt;&gt;COLUMN(G8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H8)&lt;&gt;COLUMN(H8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="I8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I8)&lt;&gt;COLUMN(I8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J8)&lt;&gt;COLUMN(J8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K8)&lt;&gt;COLUMN(K8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L8)&lt;&gt;COLUMN(L8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M8)&lt;&gt;COLUMN(M8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N8)&lt;&gt;COLUMN(N8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O8)&lt;&gt;COLUMN(O8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P8)&lt;&gt;COLUMN(P8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q8)&lt;&gt;COLUMN(Q8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R8)&lt;&gt;COLUMN(R8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S8)&lt;&gt;COLUMN(S8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T8)&lt;&gt;COLUMN(T8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U8" s="4">
+        <f>IF(AND($A8&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U8)&lt;&gt;COLUMN(U8),jurisdiction!$I8*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I8*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(jurisdiction!B9="", "", jurisdiction!B9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$H9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J8</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B9)&lt;&gt;COLUMN(B9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C9)&lt;&gt;COLUMN(C9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D9)&lt;&gt;COLUMN(D9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E9)&lt;&gt;COLUMN(E9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F9)&lt;&gt;COLUMN(F9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G9)&lt;&gt;COLUMN(G9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H9)&lt;&gt;COLUMN(H9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I9)&lt;&gt;COLUMN(I9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="J9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J9)&lt;&gt;COLUMN(J9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K9)&lt;&gt;COLUMN(K9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L9)&lt;&gt;COLUMN(L9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M9)&lt;&gt;COLUMN(M9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N9)&lt;&gt;COLUMN(N9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O9)&lt;&gt;COLUMN(O9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P9)&lt;&gt;COLUMN(P9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q9)&lt;&gt;COLUMN(Q9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R9)&lt;&gt;COLUMN(R9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S9)&lt;&gt;COLUMN(S9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T9)&lt;&gt;COLUMN(T9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U9" s="4">
+        <f>IF(AND($A9&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U9)&lt;&gt;COLUMN(U9),jurisdiction!$I9*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I9*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(jurisdiction!B10="", "", jurisdiction!B10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="4" t="str">
-        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$H10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J9</v>
+      </c>
+      <c r="B10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B10)&lt;&gt;COLUMN(B10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C10)&lt;&gt;COLUMN(C10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D10)&lt;&gt;COLUMN(D10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E10)&lt;&gt;COLUMN(E10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F10)&lt;&gt;COLUMN(F10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G10)&lt;&gt;COLUMN(G10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H10)&lt;&gt;COLUMN(H10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I10)&lt;&gt;COLUMN(I10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J10)&lt;&gt;COLUMN(J10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="K10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K10)&lt;&gt;COLUMN(K10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L10)&lt;&gt;COLUMN(L10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M10)&lt;&gt;COLUMN(M10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N10)&lt;&gt;COLUMN(N10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O10)&lt;&gt;COLUMN(O10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P10)&lt;&gt;COLUMN(P10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q10)&lt;&gt;COLUMN(Q10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R10)&lt;&gt;COLUMN(R10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S10)&lt;&gt;COLUMN(S10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T10)&lt;&gt;COLUMN(T10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U10" s="4">
+        <f>IF(AND($A10&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U10)&lt;&gt;COLUMN(U10),jurisdiction!$I10*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I10*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(jurisdiction!B11="", "", jurisdiction!B11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$H11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J10</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B11)&lt;&gt;COLUMN(B11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C11)&lt;&gt;COLUMN(C11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D11)&lt;&gt;COLUMN(D11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E11)&lt;&gt;COLUMN(E11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F11)&lt;&gt;COLUMN(F11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G11)&lt;&gt;COLUMN(G11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H11)&lt;&gt;COLUMN(H11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I11)&lt;&gt;COLUMN(I11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J11)&lt;&gt;COLUMN(J11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K11)&lt;&gt;COLUMN(K11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="L11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L11)&lt;&gt;COLUMN(L11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M11)&lt;&gt;COLUMN(M11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N11)&lt;&gt;COLUMN(N11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O11)&lt;&gt;COLUMN(O11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P11)&lt;&gt;COLUMN(P11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q11)&lt;&gt;COLUMN(Q11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R11)&lt;&gt;COLUMN(R11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S11)&lt;&gt;COLUMN(S11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T11)&lt;&gt;COLUMN(T11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U11" s="4">
+        <f>IF(AND($A11&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U11)&lt;&gt;COLUMN(U11),jurisdiction!$I11*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I11*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(jurisdiction!B12="", "", jurisdiction!B12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P12" s="4" t="str">
-        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$H12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J11</v>
+      </c>
+      <c r="B12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B12)&lt;&gt;COLUMN(B12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C12)&lt;&gt;COLUMN(C12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D12)&lt;&gt;COLUMN(D12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E12)&lt;&gt;COLUMN(E12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F12)&lt;&gt;COLUMN(F12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G12)&lt;&gt;COLUMN(G12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H12)&lt;&gt;COLUMN(H12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I12)&lt;&gt;COLUMN(I12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J12)&lt;&gt;COLUMN(J12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K12)&lt;&gt;COLUMN(K12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L12)&lt;&gt;COLUMN(L12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="M12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M12)&lt;&gt;COLUMN(M12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N12)&lt;&gt;COLUMN(N12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O12)&lt;&gt;COLUMN(O12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P12)&lt;&gt;COLUMN(P12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q12)&lt;&gt;COLUMN(Q12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R12)&lt;&gt;COLUMN(R12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S12)&lt;&gt;COLUMN(S12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T12)&lt;&gt;COLUMN(T12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U12" s="4">
+        <f>IF(AND($A12&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U12)&lt;&gt;COLUMN(U12),jurisdiction!$I12*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I12*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(jurisdiction!B13="", "", jurisdiction!B13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$H13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J12</v>
+      </c>
+      <c r="B13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B13)&lt;&gt;COLUMN(B13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C13)&lt;&gt;COLUMN(C13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D13)&lt;&gt;COLUMN(D13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E13)&lt;&gt;COLUMN(E13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F13)&lt;&gt;COLUMN(F13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G13)&lt;&gt;COLUMN(G13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H13)&lt;&gt;COLUMN(H13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I13)&lt;&gt;COLUMN(I13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J13)&lt;&gt;COLUMN(J13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K13)&lt;&gt;COLUMN(K13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L13)&lt;&gt;COLUMN(L13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M13)&lt;&gt;COLUMN(M13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="N13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N13)&lt;&gt;COLUMN(N13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O13)&lt;&gt;COLUMN(O13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P13)&lt;&gt;COLUMN(P13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q13)&lt;&gt;COLUMN(Q13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R13)&lt;&gt;COLUMN(R13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S13)&lt;&gt;COLUMN(S13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T13)&lt;&gt;COLUMN(T13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U13" s="4">
+        <f>IF(AND($A13&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U13)&lt;&gt;COLUMN(U13),jurisdiction!$I13*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I13*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(jurisdiction!B14="", "", jurisdiction!B14)</f>
-        <v/>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="4" t="str">
-        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$H14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J13</v>
+      </c>
+      <c r="B14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B14)&lt;&gt;COLUMN(B14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C14)&lt;&gt;COLUMN(C14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D14)&lt;&gt;COLUMN(D14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E14)&lt;&gt;COLUMN(E14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F14)&lt;&gt;COLUMN(F14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G14)&lt;&gt;COLUMN(G14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H14)&lt;&gt;COLUMN(H14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I14)&lt;&gt;COLUMN(I14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J14)&lt;&gt;COLUMN(J14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K14)&lt;&gt;COLUMN(K14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L14)&lt;&gt;COLUMN(L14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M14)&lt;&gt;COLUMN(M14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N14)&lt;&gt;COLUMN(N14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="O14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O14)&lt;&gt;COLUMN(O14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P14)&lt;&gt;COLUMN(P14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q14)&lt;&gt;COLUMN(Q14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R14)&lt;&gt;COLUMN(R14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S14)&lt;&gt;COLUMN(S14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T14)&lt;&gt;COLUMN(T14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U14" s="4">
+        <f>IF(AND($A14&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U14)&lt;&gt;COLUMN(U14),jurisdiction!$I14*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I14*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(jurisdiction!B15="", "", jurisdiction!B15)</f>
-        <v/>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$H15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>J14</v>
+      </c>
+      <c r="B15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B15)&lt;&gt;COLUMN(B15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C15)&lt;&gt;COLUMN(C15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D15)&lt;&gt;COLUMN(D15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E15)&lt;&gt;COLUMN(E15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F15)&lt;&gt;COLUMN(F15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G15)&lt;&gt;COLUMN(G15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H15)&lt;&gt;COLUMN(H15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I15)&lt;&gt;COLUMN(I15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J15)&lt;&gt;COLUMN(J15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K15)&lt;&gt;COLUMN(K15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L15)&lt;&gt;COLUMN(L15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M15)&lt;&gt;COLUMN(M15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N15)&lt;&gt;COLUMN(N15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O15)&lt;&gt;COLUMN(O15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="P15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P15)&lt;&gt;COLUMN(P15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q15)&lt;&gt;COLUMN(Q15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R15)&lt;&gt;COLUMN(R15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S15)&lt;&gt;COLUMN(S15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T15)&lt;&gt;COLUMN(T15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U15" s="4">
+        <f>IF(AND($A15&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U15)&lt;&gt;COLUMN(U15),jurisdiction!$I15*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I15*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF(jurisdiction!B16="", "", jurisdiction!B16)</f>
-        <v/>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$H16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J15</v>
+      </c>
+      <c r="B16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B16)&lt;&gt;COLUMN(B16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C16)&lt;&gt;COLUMN(C16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D16)&lt;&gt;COLUMN(D16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E16)&lt;&gt;COLUMN(E16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F16)&lt;&gt;COLUMN(F16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G16)&lt;&gt;COLUMN(G16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H16)&lt;&gt;COLUMN(H16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I16)&lt;&gt;COLUMN(I16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J16)&lt;&gt;COLUMN(J16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K16)&lt;&gt;COLUMN(K16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L16)&lt;&gt;COLUMN(L16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M16)&lt;&gt;COLUMN(M16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N16)&lt;&gt;COLUMN(N16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O16)&lt;&gt;COLUMN(O16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P16)&lt;&gt;COLUMN(P16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q16)&lt;&gt;COLUMN(Q16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R16)&lt;&gt;COLUMN(R16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S16)&lt;&gt;COLUMN(S16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T16)&lt;&gt;COLUMN(T16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U16" s="4">
+        <f>IF(AND($A16&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U16)&lt;&gt;COLUMN(U16),jurisdiction!$I16*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I16*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF(jurisdiction!B17="", "", jurisdiction!B17)</f>
-        <v/>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P17" s="4" t="str">
-        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$H17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J16</v>
+      </c>
+      <c r="B17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B17)&lt;&gt;COLUMN(B17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C17)&lt;&gt;COLUMN(C17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D17)&lt;&gt;COLUMN(D17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E17)&lt;&gt;COLUMN(E17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F17)&lt;&gt;COLUMN(F17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G17)&lt;&gt;COLUMN(G17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H17)&lt;&gt;COLUMN(H17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I17)&lt;&gt;COLUMN(I17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J17)&lt;&gt;COLUMN(J17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K17)&lt;&gt;COLUMN(K17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L17)&lt;&gt;COLUMN(L17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M17)&lt;&gt;COLUMN(M17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N17)&lt;&gt;COLUMN(N17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O17)&lt;&gt;COLUMN(O17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P17)&lt;&gt;COLUMN(P17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q17)&lt;&gt;COLUMN(Q17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="R17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R17)&lt;&gt;COLUMN(R17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S17)&lt;&gt;COLUMN(S17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T17)&lt;&gt;COLUMN(T17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U17" s="4">
+        <f>IF(AND($A17&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U17)&lt;&gt;COLUMN(U17),jurisdiction!$I17*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I17*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>IF(jurisdiction!B18="", "", jurisdiction!B18)</f>
-        <v/>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P18" s="4" t="str">
-        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$H18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J17</v>
+      </c>
+      <c r="B18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B18)&lt;&gt;COLUMN(B18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D18)&lt;&gt;COLUMN(D18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E18)&lt;&gt;COLUMN(E18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F18)&lt;&gt;COLUMN(F18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G18)&lt;&gt;COLUMN(G18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H18)&lt;&gt;COLUMN(H18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I18)&lt;&gt;COLUMN(I18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J18)&lt;&gt;COLUMN(J18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K18)&lt;&gt;COLUMN(K18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L18)&lt;&gt;COLUMN(L18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M18)&lt;&gt;COLUMN(M18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N18)&lt;&gt;COLUMN(N18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O18)&lt;&gt;COLUMN(O18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P18)&lt;&gt;COLUMN(P18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q18)&lt;&gt;COLUMN(Q18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R18)&lt;&gt;COLUMN(R18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="S18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S18)&lt;&gt;COLUMN(S18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T18)&lt;&gt;COLUMN(T18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U18" s="4">
+        <f>IF(AND($A18&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U18)&lt;&gt;COLUMN(U18),jurisdiction!$I18*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I18*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>IF(jurisdiction!B19="", "", jurisdiction!B19)</f>
-        <v/>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="4" t="str">
-        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$H19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J18</v>
+      </c>
+      <c r="B19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C19)&lt;&gt;COLUMN(C19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D19)&lt;&gt;COLUMN(D19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E19)&lt;&gt;COLUMN(E19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F19)&lt;&gt;COLUMN(F19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G19)&lt;&gt;COLUMN(G19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H19)&lt;&gt;COLUMN(H19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I19)&lt;&gt;COLUMN(I19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J19)&lt;&gt;COLUMN(J19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K19)&lt;&gt;COLUMN(K19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L19)&lt;&gt;COLUMN(L19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M19)&lt;&gt;COLUMN(M19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N19)&lt;&gt;COLUMN(N19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O19)&lt;&gt;COLUMN(O19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q19)&lt;&gt;COLUMN(Q19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R19)&lt;&gt;COLUMN(R19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S19)&lt;&gt;COLUMN(S19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="T19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T19)&lt;&gt;COLUMN(T19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U19" s="4">
+        <f>IF(AND($A19&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U19)&lt;&gt;COLUMN(U19),jurisdiction!$I19*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I19*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>IF(jurisdiction!B20="", "", jurisdiction!B20)</f>
-        <v/>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="4" t="str">
-        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$H20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J19</v>
+      </c>
+      <c r="B20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B20)&lt;&gt;COLUMN(B20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C20)&lt;&gt;COLUMN(C20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D20)&lt;&gt;COLUMN(D20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E20)&lt;&gt;COLUMN(E20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F20)&lt;&gt;COLUMN(F20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G20)&lt;&gt;COLUMN(G20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H20)&lt;&gt;COLUMN(H20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I20)&lt;&gt;COLUMN(I20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J20)&lt;&gt;COLUMN(J20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K20)&lt;&gt;COLUMN(K20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L20)&lt;&gt;COLUMN(L20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M20)&lt;&gt;COLUMN(M20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N20)&lt;&gt;COLUMN(N20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O20)&lt;&gt;COLUMN(O20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P20)&lt;&gt;COLUMN(P20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q20)&lt;&gt;COLUMN(Q20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R20)&lt;&gt;COLUMN(R20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S20)&lt;&gt;COLUMN(S20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T20)&lt;&gt;COLUMN(T20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+      <c r="U20" s="4">
+        <f>IF(AND($A20&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U20)&lt;&gt;COLUMN(U20),jurisdiction!$I20*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I20*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>IF(jurisdiction!B21="", "", jurisdiction!B21)</f>
-        <v/>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="C21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="F21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="I21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="J21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="N21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="O21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-      <c r="P21" s="4" t="str">
-        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$H21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>J20</v>
+      </c>
+      <c r="B21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B21)&lt;&gt;COLUMN(B21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="C21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C21)&lt;&gt;COLUMN(C21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D21)&lt;&gt;COLUMN(D21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="E21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E21)&lt;&gt;COLUMN(E21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="F21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F21)&lt;&gt;COLUMN(F21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="G21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G21)&lt;&gt;COLUMN(G21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="H21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H21)&lt;&gt;COLUMN(H21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="I21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I21)&lt;&gt;COLUMN(I21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="J21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J21)&lt;&gt;COLUMN(J21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="K21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K21)&lt;&gt;COLUMN(K21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="L21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L21)&lt;&gt;COLUMN(L21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="M21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M21)&lt;&gt;COLUMN(M21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="N21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N21)&lt;&gt;COLUMN(N21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="O21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O21)&lt;&gt;COLUMN(O21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="P21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P21)&lt;&gt;COLUMN(P21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", Q$1&lt;&gt;""),IF(ROW(Q21)&lt;&gt;COLUMN(Q21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="R21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", R$1&lt;&gt;""),IF(ROW(R21)&lt;&gt;COLUMN(R21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="S21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", S$1&lt;&gt;""),IF(ROW(S21)&lt;&gt;COLUMN(S21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="T21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", T$1&lt;&gt;""),IF(ROW(T21)&lt;&gt;COLUMN(T21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="U21" s="4">
+        <f>IF(AND($A21&lt;&gt;"", U$1&lt;&gt;""),IF(ROW(U21)&lt;&gt;COLUMN(U21),jurisdiction!$I21*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I21*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>IF(jurisdiction!B22="", "", jurisdiction!B22)</f>
         <v/>
       </c>
       <c r="B22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B22)&lt;&gt;COLUMN(B22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C22)&lt;&gt;COLUMN(C22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D22)&lt;&gt;COLUMN(D22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E22)&lt;&gt;COLUMN(E22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F22)&lt;&gt;COLUMN(F22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G22)&lt;&gt;COLUMN(G22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H22)&lt;&gt;COLUMN(H22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I22)&lt;&gt;COLUMN(I22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J22)&lt;&gt;COLUMN(J22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K22)&lt;&gt;COLUMN(K22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L22)&lt;&gt;COLUMN(L22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M22)&lt;&gt;COLUMN(M22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N22)&lt;&gt;COLUMN(N22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A22&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O22)&lt;&gt;COLUMN(O22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P22" s="4" t="str">
-        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$H22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A22&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P22)&lt;&gt;COLUMN(P22),jurisdiction!$I22*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I22*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF(jurisdiction!B23="", "", jurisdiction!B23)</f>
         <v/>
       </c>
       <c r="B23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B23)&lt;&gt;COLUMN(B23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C23)&lt;&gt;COLUMN(C23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D23)&lt;&gt;COLUMN(D23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E23)&lt;&gt;COLUMN(E23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F23)&lt;&gt;COLUMN(F23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G23)&lt;&gt;COLUMN(G23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H23)&lt;&gt;COLUMN(H23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I23)&lt;&gt;COLUMN(I23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J23)&lt;&gt;COLUMN(J23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K23)&lt;&gt;COLUMN(K23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L23)&lt;&gt;COLUMN(L23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M23)&lt;&gt;COLUMN(M23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N23)&lt;&gt;COLUMN(N23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A23&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O23)&lt;&gt;COLUMN(O23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P23" s="4" t="str">
-        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$H23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A23&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P23)&lt;&gt;COLUMN(P23),jurisdiction!$I23*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I23*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF(jurisdiction!B24="", "", jurisdiction!B24)</f>
         <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B24)&lt;&gt;COLUMN(B24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C24)&lt;&gt;COLUMN(C24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D24)&lt;&gt;COLUMN(D24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E24)&lt;&gt;COLUMN(E24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F24)&lt;&gt;COLUMN(F24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G24)&lt;&gt;COLUMN(G24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H24)&lt;&gt;COLUMN(H24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I24)&lt;&gt;COLUMN(I24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J24)&lt;&gt;COLUMN(J24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K24)&lt;&gt;COLUMN(K24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L24)&lt;&gt;COLUMN(L24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M24)&lt;&gt;COLUMN(M24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N24)&lt;&gt;COLUMN(N24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A24&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O24)&lt;&gt;COLUMN(O24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P24" s="4" t="str">
-        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$H24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A24&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P24)&lt;&gt;COLUMN(P24),jurisdiction!$I24*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I24*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF(jurisdiction!B25="", "", jurisdiction!B25)</f>
         <v/>
       </c>
       <c r="B25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B25)&lt;&gt;COLUMN(B25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C25)&lt;&gt;COLUMN(C25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D25)&lt;&gt;COLUMN(D25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E25)&lt;&gt;COLUMN(E25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F25)&lt;&gt;COLUMN(F25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G25)&lt;&gt;COLUMN(G25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H25)&lt;&gt;COLUMN(H25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I25)&lt;&gt;COLUMN(I25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J25)&lt;&gt;COLUMN(J25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K25)&lt;&gt;COLUMN(K25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L25)&lt;&gt;COLUMN(L25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M25)&lt;&gt;COLUMN(M25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N25)&lt;&gt;COLUMN(N25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A25&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O25)&lt;&gt;COLUMN(O25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P25" s="4" t="str">
-        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$H25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A25&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P25)&lt;&gt;COLUMN(P25),jurisdiction!$I25*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I25*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF(jurisdiction!B26="", "", jurisdiction!B26)</f>
         <v/>
       </c>
       <c r="B26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B26)&lt;&gt;COLUMN(B26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C26)&lt;&gt;COLUMN(C26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D26)&lt;&gt;COLUMN(D26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E26)&lt;&gt;COLUMN(E26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F26)&lt;&gt;COLUMN(F26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G26)&lt;&gt;COLUMN(G26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H26)&lt;&gt;COLUMN(H26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I26)&lt;&gt;COLUMN(I26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J26)&lt;&gt;COLUMN(J26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K26)&lt;&gt;COLUMN(K26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L26)&lt;&gt;COLUMN(L26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M26)&lt;&gt;COLUMN(M26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N26)&lt;&gt;COLUMN(N26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A26&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O26)&lt;&gt;COLUMN(O26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P26" s="4" t="str">
-        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$H26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A26&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P26)&lt;&gt;COLUMN(P26),jurisdiction!$I26*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I26*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF(jurisdiction!B27="", "", jurisdiction!B27)</f>
         <v/>
       </c>
       <c r="B27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B27)&lt;&gt;COLUMN(B27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C27)&lt;&gt;COLUMN(C27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D27)&lt;&gt;COLUMN(D27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E27)&lt;&gt;COLUMN(E27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F27)&lt;&gt;COLUMN(F27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G27)&lt;&gt;COLUMN(G27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H27)&lt;&gt;COLUMN(H27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I27)&lt;&gt;COLUMN(I27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J27)&lt;&gt;COLUMN(J27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K27)&lt;&gt;COLUMN(K27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L27)&lt;&gt;COLUMN(L27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M27)&lt;&gt;COLUMN(M27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N27)&lt;&gt;COLUMN(N27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A27&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O27)&lt;&gt;COLUMN(O27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P27" s="4" t="str">
-        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$H27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A27&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P27)&lt;&gt;COLUMN(P27),jurisdiction!$I27*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I27*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF(jurisdiction!B28="", "", jurisdiction!B28)</f>
         <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B28)&lt;&gt;COLUMN(B28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C28)&lt;&gt;COLUMN(C28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D28)&lt;&gt;COLUMN(D28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E28)&lt;&gt;COLUMN(E28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F28)&lt;&gt;COLUMN(F28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G28)&lt;&gt;COLUMN(G28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H28)&lt;&gt;COLUMN(H28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I28)&lt;&gt;COLUMN(I28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J28)&lt;&gt;COLUMN(J28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K28)&lt;&gt;COLUMN(K28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L28)&lt;&gt;COLUMN(L28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M28)&lt;&gt;COLUMN(M28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N28)&lt;&gt;COLUMN(N28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A28&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O28)&lt;&gt;COLUMN(O28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P28" s="4" t="str">
-        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$H28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A28&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P28)&lt;&gt;COLUMN(P28),jurisdiction!$I28*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I28*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF(jurisdiction!B29="", "", jurisdiction!B29)</f>
         <v/>
       </c>
       <c r="B29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B29)&lt;&gt;COLUMN(B29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C29)&lt;&gt;COLUMN(C29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D29)&lt;&gt;COLUMN(D29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E29)&lt;&gt;COLUMN(E29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F29)&lt;&gt;COLUMN(F29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G29)&lt;&gt;COLUMN(G29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H29)&lt;&gt;COLUMN(H29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I29)&lt;&gt;COLUMN(I29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J29)&lt;&gt;COLUMN(J29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K29)&lt;&gt;COLUMN(K29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L29)&lt;&gt;COLUMN(L29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M29)&lt;&gt;COLUMN(M29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N29)&lt;&gt;COLUMN(N29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A29&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O29)&lt;&gt;COLUMN(O29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P29" s="4" t="str">
-        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$H29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A29&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P29)&lt;&gt;COLUMN(P29),jurisdiction!$I29*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I29*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(jurisdiction!B30="", "", jurisdiction!B30)</f>
         <v/>
       </c>
       <c r="B30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B30)&lt;&gt;COLUMN(B30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C30)&lt;&gt;COLUMN(C30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D30)&lt;&gt;COLUMN(D30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E30)&lt;&gt;COLUMN(E30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F30)&lt;&gt;COLUMN(F30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G30)&lt;&gt;COLUMN(G30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H30)&lt;&gt;COLUMN(H30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I30)&lt;&gt;COLUMN(I30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J30)&lt;&gt;COLUMN(J30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K30)&lt;&gt;COLUMN(K30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L30)&lt;&gt;COLUMN(L30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M30)&lt;&gt;COLUMN(M30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N30)&lt;&gt;COLUMN(N30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A30&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O30)&lt;&gt;COLUMN(O30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P30" s="4" t="str">
-        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$H30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A30&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P30)&lt;&gt;COLUMN(P30),jurisdiction!$I30*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I30*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF(jurisdiction!B31="", "", jurisdiction!B31)</f>
         <v/>
       </c>
       <c r="B31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B31)&lt;&gt;COLUMN(B31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C31)&lt;&gt;COLUMN(C31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D31)&lt;&gt;COLUMN(D31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E31)&lt;&gt;COLUMN(E31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F31)&lt;&gt;COLUMN(F31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G31)&lt;&gt;COLUMN(G31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H31)&lt;&gt;COLUMN(H31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I31)&lt;&gt;COLUMN(I31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J31)&lt;&gt;COLUMN(J31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K31)&lt;&gt;COLUMN(K31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L31)&lt;&gt;COLUMN(L31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M31)&lt;&gt;COLUMN(M31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N31)&lt;&gt;COLUMN(N31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A31&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O31)&lt;&gt;COLUMN(O31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P31" s="4" t="str">
-        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$H31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(AND($A31&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P31)&lt;&gt;COLUMN(P31),jurisdiction!$I31*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I31*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>IF(jurisdiction!B32="", "", jurisdiction!B32)</f>
         <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B32)&lt;&gt;COLUMN(B32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C32)&lt;&gt;COLUMN(C32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D32)&lt;&gt;COLUMN(D32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E32)&lt;&gt;COLUMN(E32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F32)&lt;&gt;COLUMN(F32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G32)&lt;&gt;COLUMN(G32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H32)&lt;&gt;COLUMN(H32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I32)&lt;&gt;COLUMN(I32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J32)&lt;&gt;COLUMN(J32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K32)&lt;&gt;COLUMN(K32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L32)&lt;&gt;COLUMN(L32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M32)&lt;&gt;COLUMN(M32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N32)&lt;&gt;COLUMN(N32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O32)&lt;&gt;COLUMN(O32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P32" s="4" t="str">
-        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$H32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A32&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P32)&lt;&gt;COLUMN(P32),jurisdiction!$I32*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I32*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4050,63 +5169,63 @@
         <v/>
       </c>
       <c r="B33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B33)&lt;&gt;COLUMN(B33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C33)&lt;&gt;COLUMN(C33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D33)&lt;&gt;COLUMN(D33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E33)&lt;&gt;COLUMN(E33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F33)&lt;&gt;COLUMN(F33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G33)&lt;&gt;COLUMN(G33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H33)&lt;&gt;COLUMN(H33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I33)&lt;&gt;COLUMN(I33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J33)&lt;&gt;COLUMN(J33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K33)&lt;&gt;COLUMN(K33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L33)&lt;&gt;COLUMN(L33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M33)&lt;&gt;COLUMN(M33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N33)&lt;&gt;COLUMN(N33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O33)&lt;&gt;COLUMN(O33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P33" s="4" t="str">
-        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$H33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A33&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P33)&lt;&gt;COLUMN(P33),jurisdiction!$I33*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I33*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4116,63 +5235,63 @@
         <v/>
       </c>
       <c r="B34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B34)&lt;&gt;COLUMN(B34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C34)&lt;&gt;COLUMN(C34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D34)&lt;&gt;COLUMN(D34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E34)&lt;&gt;COLUMN(E34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F34)&lt;&gt;COLUMN(F34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G34)&lt;&gt;COLUMN(G34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H34)&lt;&gt;COLUMN(H34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I34)&lt;&gt;COLUMN(I34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J34)&lt;&gt;COLUMN(J34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K34)&lt;&gt;COLUMN(K34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L34)&lt;&gt;COLUMN(L34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M34)&lt;&gt;COLUMN(M34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N34)&lt;&gt;COLUMN(N34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O34)&lt;&gt;COLUMN(O34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P34" s="4" t="str">
-        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$H34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A34&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P34)&lt;&gt;COLUMN(P34),jurisdiction!$I34*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I34*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4182,63 +5301,63 @@
         <v/>
       </c>
       <c r="B35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B35)&lt;&gt;COLUMN(B35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C35)&lt;&gt;COLUMN(C35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D35)&lt;&gt;COLUMN(D35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E35)&lt;&gt;COLUMN(E35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F35)&lt;&gt;COLUMN(F35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G35)&lt;&gt;COLUMN(G35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H35)&lt;&gt;COLUMN(H35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I35)&lt;&gt;COLUMN(I35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J35)&lt;&gt;COLUMN(J35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K35)&lt;&gt;COLUMN(K35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L35)&lt;&gt;COLUMN(L35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M35)&lt;&gt;COLUMN(M35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N35)&lt;&gt;COLUMN(N35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O35)&lt;&gt;COLUMN(O35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P35" s="4" t="str">
-        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$H35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),jurisdiction!$I35*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I35*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4248,63 +5367,63 @@
         <v/>
       </c>
       <c r="B36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B36)&lt;&gt;COLUMN(B36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C36)&lt;&gt;COLUMN(C36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D36)&lt;&gt;COLUMN(D36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E36)&lt;&gt;COLUMN(E36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F36)&lt;&gt;COLUMN(F36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G36)&lt;&gt;COLUMN(G36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H36)&lt;&gt;COLUMN(H36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I36)&lt;&gt;COLUMN(I36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J36)&lt;&gt;COLUMN(J36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K36)&lt;&gt;COLUMN(K36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L36)&lt;&gt;COLUMN(L36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M36)&lt;&gt;COLUMN(M36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N36)&lt;&gt;COLUMN(N36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O36)&lt;&gt;COLUMN(O36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P36" s="4" t="str">
-        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$H36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A36&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P36)&lt;&gt;COLUMN(P36),jurisdiction!$I36*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I36*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4314,63 +5433,63 @@
         <v/>
       </c>
       <c r="B37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B37)&lt;&gt;COLUMN(B37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C37)&lt;&gt;COLUMN(C37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D37)&lt;&gt;COLUMN(D37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E37)&lt;&gt;COLUMN(E37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F37)&lt;&gt;COLUMN(F37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G37)&lt;&gt;COLUMN(G37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H37)&lt;&gt;COLUMN(H37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I37)&lt;&gt;COLUMN(I37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J37)&lt;&gt;COLUMN(J37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K37)&lt;&gt;COLUMN(K37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L37)&lt;&gt;COLUMN(L37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M37)&lt;&gt;COLUMN(M37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N37)&lt;&gt;COLUMN(N37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O37)&lt;&gt;COLUMN(O37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P37" s="4" t="str">
-        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$H37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A37&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P37)&lt;&gt;COLUMN(P37),jurisdiction!$I37*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I37*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4380,63 +5499,63 @@
         <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B38)&lt;&gt;COLUMN(B38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C38)&lt;&gt;COLUMN(C38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D38)&lt;&gt;COLUMN(D38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E38)&lt;&gt;COLUMN(E38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F38)&lt;&gt;COLUMN(F38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G38)&lt;&gt;COLUMN(G38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H38)&lt;&gt;COLUMN(H38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I38)&lt;&gt;COLUMN(I38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J38)&lt;&gt;COLUMN(J38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K38)&lt;&gt;COLUMN(K38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L38)&lt;&gt;COLUMN(L38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M38)&lt;&gt;COLUMN(M38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N38)&lt;&gt;COLUMN(N38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O38)&lt;&gt;COLUMN(O38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P38" s="4" t="str">
-        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$H38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A38&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P38)&lt;&gt;COLUMN(P38),jurisdiction!$I38*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I38*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4446,63 +5565,63 @@
         <v/>
       </c>
       <c r="B39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B39)&lt;&gt;COLUMN(B39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C39)&lt;&gt;COLUMN(C39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D39)&lt;&gt;COLUMN(D39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E39)&lt;&gt;COLUMN(E39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F39)&lt;&gt;COLUMN(F39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G39)&lt;&gt;COLUMN(G39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H39)&lt;&gt;COLUMN(H39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I39)&lt;&gt;COLUMN(I39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J39)&lt;&gt;COLUMN(J39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K39)&lt;&gt;COLUMN(K39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L39)&lt;&gt;COLUMN(L39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M39)&lt;&gt;COLUMN(M39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N39)&lt;&gt;COLUMN(N39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O39)&lt;&gt;COLUMN(O39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P39" s="4" t="str">
-        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$H39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A39&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P39)&lt;&gt;COLUMN(P39),jurisdiction!$I39*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I39*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4512,63 +5631,63 @@
         <v/>
       </c>
       <c r="B40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B40)&lt;&gt;COLUMN(B40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C40)&lt;&gt;COLUMN(C40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D40)&lt;&gt;COLUMN(D40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E40)&lt;&gt;COLUMN(E40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F40)&lt;&gt;COLUMN(F40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G40)&lt;&gt;COLUMN(G40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H40)&lt;&gt;COLUMN(H40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I40)&lt;&gt;COLUMN(I40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J40)&lt;&gt;COLUMN(J40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K40)&lt;&gt;COLUMN(K40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L40)&lt;&gt;COLUMN(L40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M40)&lt;&gt;COLUMN(M40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N40)&lt;&gt;COLUMN(N40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O40)&lt;&gt;COLUMN(O40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P40" s="4" t="str">
-        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$H40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A40&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P40)&lt;&gt;COLUMN(P40),jurisdiction!$I40*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I40*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
@@ -4578,869 +5697,869 @@
         <v/>
       </c>
       <c r="B41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B41)&lt;&gt;COLUMN(B41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C41)&lt;&gt;COLUMN(C41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D41)&lt;&gt;COLUMN(D41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E41)&lt;&gt;COLUMN(E41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F41)&lt;&gt;COLUMN(F41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G41)&lt;&gt;COLUMN(G41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H41)&lt;&gt;COLUMN(H41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I41)&lt;&gt;COLUMN(I41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J41)&lt;&gt;COLUMN(J41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K41)&lt;&gt;COLUMN(K41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L41)&lt;&gt;COLUMN(L41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M41)&lt;&gt;COLUMN(M41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N41)&lt;&gt;COLUMN(N41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O41)&lt;&gt;COLUMN(O41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P41" s="4" t="str">
-        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$H41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A41&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P41)&lt;&gt;COLUMN(P41),jurisdiction!$I41*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I41*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B42)&lt;&gt;COLUMN(B42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C42)&lt;&gt;COLUMN(C42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D42)&lt;&gt;COLUMN(D42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E42)&lt;&gt;COLUMN(E42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F42)&lt;&gt;COLUMN(F42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G42)&lt;&gt;COLUMN(G42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H42)&lt;&gt;COLUMN(H42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I42)&lt;&gt;COLUMN(I42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J42)&lt;&gt;COLUMN(J42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K42)&lt;&gt;COLUMN(K42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L42)&lt;&gt;COLUMN(L42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M42)&lt;&gt;COLUMN(M42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N42)&lt;&gt;COLUMN(N42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O42)&lt;&gt;COLUMN(O42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P42" s="4" t="str">
-        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$H42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A42&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P42)&lt;&gt;COLUMN(P42),jurisdiction!$I42*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I42*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B43)&lt;&gt;COLUMN(B43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C43)&lt;&gt;COLUMN(C43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D43)&lt;&gt;COLUMN(D43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E43)&lt;&gt;COLUMN(E43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F43)&lt;&gt;COLUMN(F43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G43)&lt;&gt;COLUMN(G43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H43)&lt;&gt;COLUMN(H43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I43)&lt;&gt;COLUMN(I43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J43)&lt;&gt;COLUMN(J43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K43)&lt;&gt;COLUMN(K43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L43)&lt;&gt;COLUMN(L43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M43)&lt;&gt;COLUMN(M43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N43)&lt;&gt;COLUMN(N43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O43)&lt;&gt;COLUMN(O43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P43" s="4" t="str">
-        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$H43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A43&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P43)&lt;&gt;COLUMN(P43),jurisdiction!$I43*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I43*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B44)&lt;&gt;COLUMN(B44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C44)&lt;&gt;COLUMN(C44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D44)&lt;&gt;COLUMN(D44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E44)&lt;&gt;COLUMN(E44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F44)&lt;&gt;COLUMN(F44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G44)&lt;&gt;COLUMN(G44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H44)&lt;&gt;COLUMN(H44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I44)&lt;&gt;COLUMN(I44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J44)&lt;&gt;COLUMN(J44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K44)&lt;&gt;COLUMN(K44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L44)&lt;&gt;COLUMN(L44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M44)&lt;&gt;COLUMN(M44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N44)&lt;&gt;COLUMN(N44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O44)&lt;&gt;COLUMN(O44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P44" s="4" t="str">
-        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$H44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A44&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P44)&lt;&gt;COLUMN(P44),jurisdiction!$I44*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I44*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B45)&lt;&gt;COLUMN(B45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C45)&lt;&gt;COLUMN(C45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D45)&lt;&gt;COLUMN(D45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E45)&lt;&gt;COLUMN(E45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F45)&lt;&gt;COLUMN(F45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G45)&lt;&gt;COLUMN(G45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H45)&lt;&gt;COLUMN(H45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I45)&lt;&gt;COLUMN(I45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J45)&lt;&gt;COLUMN(J45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K45)&lt;&gt;COLUMN(K45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L45)&lt;&gt;COLUMN(L45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M45)&lt;&gt;COLUMN(M45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N45)&lt;&gt;COLUMN(N45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O45)&lt;&gt;COLUMN(O45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P45" s="4" t="str">
-        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$H45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A45&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P45)&lt;&gt;COLUMN(P45),jurisdiction!$I45*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I45*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B46)&lt;&gt;COLUMN(B46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C46)&lt;&gt;COLUMN(C46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D46)&lt;&gt;COLUMN(D46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E46)&lt;&gt;COLUMN(E46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F46)&lt;&gt;COLUMN(F46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G46)&lt;&gt;COLUMN(G46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H46)&lt;&gt;COLUMN(H46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I46)&lt;&gt;COLUMN(I46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J46)&lt;&gt;COLUMN(J46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K46)&lt;&gt;COLUMN(K46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L46)&lt;&gt;COLUMN(L46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M46)&lt;&gt;COLUMN(M46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N46)&lt;&gt;COLUMN(N46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O46)&lt;&gt;COLUMN(O46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P46" s="4" t="str">
-        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$H46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A46&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P46)&lt;&gt;COLUMN(P46),jurisdiction!$I46*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I46*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B47)&lt;&gt;COLUMN(B47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C47)&lt;&gt;COLUMN(C47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D47)&lt;&gt;COLUMN(D47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E47)&lt;&gt;COLUMN(E47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F47)&lt;&gt;COLUMN(F47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G47)&lt;&gt;COLUMN(G47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H47)&lt;&gt;COLUMN(H47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I47)&lt;&gt;COLUMN(I47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J47)&lt;&gt;COLUMN(J47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K47)&lt;&gt;COLUMN(K47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L47)&lt;&gt;COLUMN(L47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M47)&lt;&gt;COLUMN(M47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N47)&lt;&gt;COLUMN(N47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O47)&lt;&gt;COLUMN(O47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P47" s="4" t="str">
-        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$H47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A47&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P47)&lt;&gt;COLUMN(P47),jurisdiction!$I47*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I47*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B48)&lt;&gt;COLUMN(B48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C48)&lt;&gt;COLUMN(C48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D48)&lt;&gt;COLUMN(D48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E48)&lt;&gt;COLUMN(E48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F48)&lt;&gt;COLUMN(F48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G48)&lt;&gt;COLUMN(G48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H48)&lt;&gt;COLUMN(H48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="I48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I48)&lt;&gt;COLUMN(I48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="J48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", J$1&lt;&gt;""),IF(ROW(J48)&lt;&gt;COLUMN(J48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="K48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", K$1&lt;&gt;""),IF(ROW(K48)&lt;&gt;COLUMN(K48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", L$1&lt;&gt;""),IF(ROW(L48)&lt;&gt;COLUMN(L48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="M48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", M$1&lt;&gt;""),IF(ROW(M48)&lt;&gt;COLUMN(M48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="N48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", N$1&lt;&gt;""),IF(ROW(N48)&lt;&gt;COLUMN(N48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="O48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", O$1&lt;&gt;""),IF(ROW(O48)&lt;&gt;COLUMN(O48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="P48" s="4" t="str">
-        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$H48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A48&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P48)&lt;&gt;COLUMN(P48),jurisdiction!$I48*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I48*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B49)&lt;&gt;COLUMN(B49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C49)&lt;&gt;COLUMN(C49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", D$1&lt;&gt;""),IF(ROW(D49)&lt;&gt;COLUMN(D49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", E$1&lt;&gt;""),IF(ROW(E49)&lt;&gt;COLUMN(E49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="F49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", F$1&lt;&gt;""),IF(ROW(F49)&lt;&gt;COLUMN(F49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
+        <f>IF(AND($A49&lt;&gt;"", G$1&lt;&gt;""),IF(ROW(G49)&lt;&gt;COLUMN(G49),jurisdiction!$I49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$I49*parameters!$C$12*(1-parameters!$C$14)), "")</f>
         <v/>
       </c>
       <c r="H49" s="4" t="str">
-        <f>IF(AND($A49&lt;&gt;"", H$1&lt;&gt;""),IF(ROW(H49)&lt;&gt;COLUMN(H49),jurisdiction!$H49*parameters!$C$12*parameters!$C$14/(settings!$B$2-1),jurisdiction!$H49*para